--- a/csc-501-project-1/measurements.xlsx
+++ b/csc-501-project-1/measurements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Loops" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,12 @@
     <sheet name="Procedure time" sheetId="4" r:id="rId4"/>
     <sheet name="System Call" sheetId="5" r:id="rId5"/>
     <sheet name="Process creation" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Process running" sheetId="7" r:id="rId7"/>
+    <sheet name="Thread creation" sheetId="8" r:id="rId8"/>
+    <sheet name="Thread running" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Without for cycles</t>
   </si>
@@ -114,6 +117,9 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -1859,6 +1865,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
@@ -10627,10 +10645,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showRuler="0" topLeftCell="A97" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12055,6 +12073,29 @@
         <v>135</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f>AVERAGE(A2:A101)</f>
+        <v>153.81</v>
+      </c>
+      <c r="B103">
+        <f>AVERAGE(B2:B101)</f>
+        <v>249467.78</v>
+      </c>
+      <c r="C103">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D103">
+        <f>AVERAGE(D2:D101)</f>
+        <v>153.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12064,7 +12105,1465 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="134" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A17" zoomScale="134" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>863266</v>
+      </c>
+      <c r="B2">
+        <v>859342</v>
+      </c>
+      <c r="C2">
+        <v>546</v>
+      </c>
+      <c r="D2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>859332</v>
+      </c>
+      <c r="B3">
+        <v>854758</v>
+      </c>
+      <c r="C3">
+        <v>518</v>
+      </c>
+      <c r="D3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>842704</v>
+      </c>
+      <c r="B4">
+        <v>926654</v>
+      </c>
+      <c r="C4">
+        <v>1306</v>
+      </c>
+      <c r="D4">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1105858</v>
+      </c>
+      <c r="B5">
+        <v>922054</v>
+      </c>
+      <c r="C5">
+        <v>9675</v>
+      </c>
+      <c r="D5">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>834598</v>
+      </c>
+      <c r="B6">
+        <v>1096956</v>
+      </c>
+      <c r="C6">
+        <v>807</v>
+      </c>
+      <c r="D6">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>833218</v>
+      </c>
+      <c r="B7">
+        <v>927326</v>
+      </c>
+      <c r="C7">
+        <v>803</v>
+      </c>
+      <c r="D7">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>828020</v>
+      </c>
+      <c r="B8">
+        <v>896636</v>
+      </c>
+      <c r="C8">
+        <v>519</v>
+      </c>
+      <c r="D8">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1281212</v>
+      </c>
+      <c r="B9">
+        <v>1252524</v>
+      </c>
+      <c r="C9">
+        <v>553</v>
+      </c>
+      <c r="D9">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>886004</v>
+      </c>
+      <c r="B10">
+        <v>970132</v>
+      </c>
+      <c r="C10">
+        <v>781</v>
+      </c>
+      <c r="D10">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>825714</v>
+      </c>
+      <c r="B11">
+        <v>892618</v>
+      </c>
+      <c r="C11">
+        <v>613</v>
+      </c>
+      <c r="D11">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>824276</v>
+      </c>
+      <c r="B12">
+        <v>1112930</v>
+      </c>
+      <c r="C12">
+        <v>1007</v>
+      </c>
+      <c r="D12">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1112998</v>
+      </c>
+      <c r="B13">
+        <v>898044</v>
+      </c>
+      <c r="C13">
+        <v>694</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>904630</v>
+      </c>
+      <c r="B14">
+        <v>891300</v>
+      </c>
+      <c r="C14">
+        <v>545</v>
+      </c>
+      <c r="D14">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1325126</v>
+      </c>
+      <c r="B15">
+        <v>1025076</v>
+      </c>
+      <c r="C15">
+        <v>607</v>
+      </c>
+      <c r="D15">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1097764</v>
+      </c>
+      <c r="B16">
+        <v>889604</v>
+      </c>
+      <c r="C16">
+        <v>634</v>
+      </c>
+      <c r="D16">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>994240</v>
+      </c>
+      <c r="B17">
+        <v>1077104</v>
+      </c>
+      <c r="C17">
+        <v>540</v>
+      </c>
+      <c r="D17">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2799899</v>
+      </c>
+      <c r="B18">
+        <v>1100760</v>
+      </c>
+      <c r="C18">
+        <v>546</v>
+      </c>
+      <c r="D18">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1109164</v>
+      </c>
+      <c r="B19">
+        <v>901818</v>
+      </c>
+      <c r="C19">
+        <v>1051</v>
+      </c>
+      <c r="D19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>919196</v>
+      </c>
+      <c r="B20">
+        <v>891758</v>
+      </c>
+      <c r="C20">
+        <v>540</v>
+      </c>
+      <c r="D20">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>968304</v>
+      </c>
+      <c r="B21">
+        <v>1044048</v>
+      </c>
+      <c r="C21">
+        <v>542</v>
+      </c>
+      <c r="D21">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1088940</v>
+      </c>
+      <c r="B22">
+        <v>890500</v>
+      </c>
+      <c r="C22">
+        <v>1554</v>
+      </c>
+      <c r="D22">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3657316</v>
+      </c>
+      <c r="B23">
+        <v>933668</v>
+      </c>
+      <c r="C23">
+        <v>1546</v>
+      </c>
+      <c r="D23">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2503295</v>
+      </c>
+      <c r="B24">
+        <v>1499146</v>
+      </c>
+      <c r="C24">
+        <v>1540</v>
+      </c>
+      <c r="D24">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2468534</v>
+      </c>
+      <c r="B25">
+        <v>899188</v>
+      </c>
+      <c r="C25">
+        <v>742</v>
+      </c>
+      <c r="D25">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2455330</v>
+      </c>
+      <c r="B26">
+        <v>13460768</v>
+      </c>
+      <c r="C26">
+        <v>771</v>
+      </c>
+      <c r="D26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2428152</v>
+      </c>
+      <c r="B27">
+        <v>20805438</v>
+      </c>
+      <c r="C27">
+        <v>679</v>
+      </c>
+      <c r="D27">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1469452</v>
+      </c>
+      <c r="B28">
+        <v>1127664</v>
+      </c>
+      <c r="C28">
+        <v>1371</v>
+      </c>
+      <c r="D28">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1668854</v>
+      </c>
+      <c r="B29">
+        <v>901060</v>
+      </c>
+      <c r="C29">
+        <v>557</v>
+      </c>
+      <c r="D29">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>871168</v>
+      </c>
+      <c r="B30">
+        <v>839870</v>
+      </c>
+      <c r="C30">
+        <v>677</v>
+      </c>
+      <c r="D30">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1022470</v>
+      </c>
+      <c r="B31">
+        <v>2027046</v>
+      </c>
+      <c r="C31">
+        <v>566</v>
+      </c>
+      <c r="D31">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1197862</v>
+      </c>
+      <c r="B32">
+        <v>910910</v>
+      </c>
+      <c r="C32">
+        <v>567</v>
+      </c>
+      <c r="D32">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>849298</v>
+      </c>
+      <c r="B33">
+        <v>933034</v>
+      </c>
+      <c r="C33">
+        <v>747</v>
+      </c>
+      <c r="D33">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>996706</v>
+      </c>
+      <c r="B34">
+        <v>1532564</v>
+      </c>
+      <c r="C34">
+        <v>573</v>
+      </c>
+      <c r="D34">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>847166</v>
+      </c>
+      <c r="B35">
+        <v>901178</v>
+      </c>
+      <c r="C35">
+        <v>552</v>
+      </c>
+      <c r="D35">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>842550</v>
+      </c>
+      <c r="B36">
+        <v>927792</v>
+      </c>
+      <c r="C36">
+        <v>644</v>
+      </c>
+      <c r="D36">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>850424</v>
+      </c>
+      <c r="B37">
+        <v>1509370</v>
+      </c>
+      <c r="C37">
+        <v>876</v>
+      </c>
+      <c r="D37">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1004766</v>
+      </c>
+      <c r="B38">
+        <v>978840</v>
+      </c>
+      <c r="C38">
+        <v>551</v>
+      </c>
+      <c r="D38">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>843554</v>
+      </c>
+      <c r="B39">
+        <v>944112</v>
+      </c>
+      <c r="C39">
+        <v>949</v>
+      </c>
+      <c r="D39">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>835466</v>
+      </c>
+      <c r="B40">
+        <v>1116846</v>
+      </c>
+      <c r="C40">
+        <v>556</v>
+      </c>
+      <c r="D40">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>842486</v>
+      </c>
+      <c r="B41">
+        <v>983962</v>
+      </c>
+      <c r="C41">
+        <v>568</v>
+      </c>
+      <c r="D41">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>888416</v>
+      </c>
+      <c r="B42">
+        <v>1168992</v>
+      </c>
+      <c r="C42">
+        <v>603</v>
+      </c>
+      <c r="D42">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>901726</v>
+      </c>
+      <c r="B43">
+        <v>1089016</v>
+      </c>
+      <c r="C43">
+        <v>508</v>
+      </c>
+      <c r="D43">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1103008</v>
+      </c>
+      <c r="B44">
+        <v>905022</v>
+      </c>
+      <c r="C44">
+        <v>509</v>
+      </c>
+      <c r="D44">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1052658</v>
+      </c>
+      <c r="B45">
+        <v>966830</v>
+      </c>
+      <c r="C45">
+        <v>1306</v>
+      </c>
+      <c r="D45">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>968378</v>
+      </c>
+      <c r="B46">
+        <v>1039756</v>
+      </c>
+      <c r="C46">
+        <v>1102</v>
+      </c>
+      <c r="D46">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1144880</v>
+      </c>
+      <c r="B47">
+        <v>899342</v>
+      </c>
+      <c r="C47">
+        <v>527</v>
+      </c>
+      <c r="D47">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>962208</v>
+      </c>
+      <c r="B48">
+        <v>1701640</v>
+      </c>
+      <c r="C48">
+        <v>525</v>
+      </c>
+      <c r="D48">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>958208</v>
+      </c>
+      <c r="B49">
+        <v>10785496</v>
+      </c>
+      <c r="C49">
+        <v>541</v>
+      </c>
+      <c r="D49">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1142432</v>
+      </c>
+      <c r="B50">
+        <v>856766</v>
+      </c>
+      <c r="C50">
+        <v>552</v>
+      </c>
+      <c r="D50">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>919120</v>
+      </c>
+      <c r="B51">
+        <v>1018572</v>
+      </c>
+      <c r="C51">
+        <v>553</v>
+      </c>
+      <c r="D51">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1109422</v>
+      </c>
+      <c r="B52">
+        <v>837934</v>
+      </c>
+      <c r="C52">
+        <v>553</v>
+      </c>
+      <c r="D52">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1133586</v>
+      </c>
+      <c r="B53">
+        <v>838712</v>
+      </c>
+      <c r="C53">
+        <v>725</v>
+      </c>
+      <c r="D53">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>910650</v>
+      </c>
+      <c r="B54">
+        <v>942476</v>
+      </c>
+      <c r="C54">
+        <v>565</v>
+      </c>
+      <c r="D54">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1491146</v>
+      </c>
+      <c r="B55">
+        <v>1063672</v>
+      </c>
+      <c r="C55">
+        <v>600</v>
+      </c>
+      <c r="D55">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1071234</v>
+      </c>
+      <c r="B56">
+        <v>906176</v>
+      </c>
+      <c r="C56">
+        <v>599</v>
+      </c>
+      <c r="D56">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>962142</v>
+      </c>
+      <c r="B57">
+        <v>1524888</v>
+      </c>
+      <c r="C57">
+        <v>510</v>
+      </c>
+      <c r="D57">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>907574</v>
+      </c>
+      <c r="B58">
+        <v>1074640</v>
+      </c>
+      <c r="C58">
+        <v>953</v>
+      </c>
+      <c r="D58">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1022218</v>
+      </c>
+      <c r="B59">
+        <v>902332</v>
+      </c>
+      <c r="C59">
+        <v>593</v>
+      </c>
+      <c r="D59">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>835472</v>
+      </c>
+      <c r="B60">
+        <v>905782</v>
+      </c>
+      <c r="C60">
+        <v>559</v>
+      </c>
+      <c r="D60">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>852020</v>
+      </c>
+      <c r="B61">
+        <v>1071500</v>
+      </c>
+      <c r="C61">
+        <v>564</v>
+      </c>
+      <c r="D61">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1140522</v>
+      </c>
+      <c r="B62">
+        <v>946608</v>
+      </c>
+      <c r="C62">
+        <v>597</v>
+      </c>
+      <c r="D62">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1214050</v>
+      </c>
+      <c r="B63">
+        <v>1297950</v>
+      </c>
+      <c r="C63">
+        <v>570</v>
+      </c>
+      <c r="D63">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>831582</v>
+      </c>
+      <c r="B64">
+        <v>2803456</v>
+      </c>
+      <c r="C64">
+        <v>942</v>
+      </c>
+      <c r="D64">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>832028</v>
+      </c>
+      <c r="B65">
+        <v>944958</v>
+      </c>
+      <c r="C65">
+        <v>551</v>
+      </c>
+      <c r="D65">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>880974</v>
+      </c>
+      <c r="B66">
+        <v>934132</v>
+      </c>
+      <c r="C66">
+        <v>665</v>
+      </c>
+      <c r="D66">
+        <v>7048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1222944</v>
+      </c>
+      <c r="B67">
+        <v>1209980</v>
+      </c>
+      <c r="C67">
+        <v>579</v>
+      </c>
+      <c r="D67">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>906410</v>
+      </c>
+      <c r="B68">
+        <v>1313408</v>
+      </c>
+      <c r="C68">
+        <v>548</v>
+      </c>
+      <c r="D68">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1027794</v>
+      </c>
+      <c r="B69">
+        <v>1010564</v>
+      </c>
+      <c r="C69">
+        <v>643</v>
+      </c>
+      <c r="D69">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>930966</v>
+      </c>
+      <c r="B70">
+        <v>1118464</v>
+      </c>
+      <c r="C70">
+        <v>965</v>
+      </c>
+      <c r="D70">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>896908</v>
+      </c>
+      <c r="B71">
+        <v>939810</v>
+      </c>
+      <c r="C71">
+        <v>511</v>
+      </c>
+      <c r="D71">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1019756</v>
+      </c>
+      <c r="B72">
+        <v>939158</v>
+      </c>
+      <c r="C72">
+        <v>707</v>
+      </c>
+      <c r="D72">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1219978</v>
+      </c>
+      <c r="B73">
+        <v>1067284</v>
+      </c>
+      <c r="C73">
+        <v>511</v>
+      </c>
+      <c r="D73">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>833600</v>
+      </c>
+      <c r="B74">
+        <v>1309750</v>
+      </c>
+      <c r="C74">
+        <v>508</v>
+      </c>
+      <c r="D74">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>868190</v>
+      </c>
+      <c r="B75">
+        <v>957140</v>
+      </c>
+      <c r="C75">
+        <v>780</v>
+      </c>
+      <c r="D75">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>833456</v>
+      </c>
+      <c r="B76">
+        <v>1100754</v>
+      </c>
+      <c r="C76">
+        <v>862</v>
+      </c>
+      <c r="D76">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>988340</v>
+      </c>
+      <c r="B77">
+        <v>2548786</v>
+      </c>
+      <c r="C77">
+        <v>532</v>
+      </c>
+      <c r="D77">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>836046</v>
+      </c>
+      <c r="B78">
+        <v>848842</v>
+      </c>
+      <c r="C78">
+        <v>620</v>
+      </c>
+      <c r="D78">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>861792</v>
+      </c>
+      <c r="B79">
+        <v>839548</v>
+      </c>
+      <c r="C79">
+        <v>553</v>
+      </c>
+      <c r="D79">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>902064</v>
+      </c>
+      <c r="B80">
+        <v>898832</v>
+      </c>
+      <c r="C80">
+        <v>549</v>
+      </c>
+      <c r="D80">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1104474</v>
+      </c>
+      <c r="B81">
+        <v>902390</v>
+      </c>
+      <c r="C81">
+        <v>552</v>
+      </c>
+      <c r="D81">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>950116</v>
+      </c>
+      <c r="B82">
+        <v>1107502</v>
+      </c>
+      <c r="C82">
+        <v>554</v>
+      </c>
+      <c r="D82">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1291744</v>
+      </c>
+      <c r="B83">
+        <v>39280874</v>
+      </c>
+      <c r="C83">
+        <v>1060</v>
+      </c>
+      <c r="D83">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1118040</v>
+      </c>
+      <c r="B84">
+        <v>926568</v>
+      </c>
+      <c r="C84">
+        <v>549</v>
+      </c>
+      <c r="D84">
+        <v>7554</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>919732</v>
+      </c>
+      <c r="B85">
+        <v>914680</v>
+      </c>
+      <c r="C85">
+        <v>644</v>
+      </c>
+      <c r="D85">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>920900</v>
+      </c>
+      <c r="B86">
+        <v>1074096</v>
+      </c>
+      <c r="C86">
+        <v>549</v>
+      </c>
+      <c r="D86">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1058814</v>
+      </c>
+      <c r="B87">
+        <v>925112</v>
+      </c>
+      <c r="C87">
+        <v>1455</v>
+      </c>
+      <c r="D87">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1022182</v>
+      </c>
+      <c r="B88">
+        <v>935022</v>
+      </c>
+      <c r="C88">
+        <v>979</v>
+      </c>
+      <c r="D88">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>958144</v>
+      </c>
+      <c r="B89">
+        <v>1110746</v>
+      </c>
+      <c r="C89">
+        <v>550</v>
+      </c>
+      <c r="D89">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1124848</v>
+      </c>
+      <c r="B90">
+        <v>900742</v>
+      </c>
+      <c r="C90">
+        <v>549</v>
+      </c>
+      <c r="D90">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>937262</v>
+      </c>
+      <c r="B91">
+        <v>894662</v>
+      </c>
+      <c r="C91">
+        <v>705</v>
+      </c>
+      <c r="D91">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>950062</v>
+      </c>
+      <c r="B92">
+        <v>1077632</v>
+      </c>
+      <c r="C92">
+        <v>563</v>
+      </c>
+      <c r="D92">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1022298</v>
+      </c>
+      <c r="B93">
+        <v>1288518</v>
+      </c>
+      <c r="C93">
+        <v>583</v>
+      </c>
+      <c r="D93">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>871914</v>
+      </c>
+      <c r="B94">
+        <v>907428</v>
+      </c>
+      <c r="C94">
+        <v>652</v>
+      </c>
+      <c r="D94">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>871254</v>
+      </c>
+      <c r="B95">
+        <v>914454</v>
+      </c>
+      <c r="C95">
+        <v>571</v>
+      </c>
+      <c r="D95">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>876688</v>
+      </c>
+      <c r="B96">
+        <v>931036</v>
+      </c>
+      <c r="C96">
+        <v>552</v>
+      </c>
+      <c r="D96">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>933584</v>
+      </c>
+      <c r="B97">
+        <v>948626</v>
+      </c>
+      <c r="C97">
+        <v>763</v>
+      </c>
+      <c r="D97">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1002986</v>
+      </c>
+      <c r="B98">
+        <v>1274946</v>
+      </c>
+      <c r="C98">
+        <v>1005</v>
+      </c>
+      <c r="D98">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2637160</v>
+      </c>
+      <c r="B99">
+        <v>955760</v>
+      </c>
+      <c r="C99">
+        <v>554</v>
+      </c>
+      <c r="D99">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1301742</v>
+      </c>
+      <c r="B100">
+        <v>944918</v>
+      </c>
+      <c r="C100">
+        <v>757</v>
+      </c>
+      <c r="D100">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>920902</v>
+      </c>
+      <c r="B101">
+        <v>1099714</v>
+      </c>
+      <c r="C101">
+        <v>546</v>
+      </c>
+      <c r="D101">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f>AVERAGE(A2:A101)</f>
+        <v>1113380.56</v>
+      </c>
+      <c r="B103">
+        <f>AVERAGE(B2:B101)</f>
+        <v>1863987.92</v>
+      </c>
+      <c r="C103">
+        <f>AVERAGE(C2:C101)</f>
+        <v>792.45</v>
+      </c>
+      <c r="D103">
+        <f>AVERAGE(D2:D101)</f>
+        <v>1314.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D103"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A94" zoomScale="134" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D102"/>
     </sheetView>
   </sheetViews>
@@ -12092,1425 +13591,2883 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>863266</v>
+        <v>164</v>
       </c>
       <c r="B2">
-        <v>859342</v>
+        <v>43216</v>
       </c>
       <c r="C2">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>748</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>859332</v>
+        <v>210</v>
       </c>
       <c r="B3">
-        <v>854758</v>
+        <v>34150</v>
       </c>
       <c r="C3">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>516</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>842704</v>
+        <v>154</v>
       </c>
       <c r="B4">
-        <v>926654</v>
+        <v>33498</v>
       </c>
       <c r="C4">
-        <v>1306</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1105858</v>
+        <v>144</v>
       </c>
       <c r="B5">
-        <v>922054</v>
+        <v>35052</v>
       </c>
       <c r="C5">
-        <v>9675</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>521</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>834598</v>
+        <v>192</v>
       </c>
       <c r="B6">
-        <v>1096956</v>
+        <v>34262</v>
       </c>
       <c r="C6">
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2813</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>833218</v>
+        <v>152</v>
       </c>
       <c r="B7">
-        <v>927326</v>
+        <v>34896</v>
       </c>
       <c r="C7">
-        <v>803</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>828020</v>
+        <v>152</v>
       </c>
       <c r="B8">
-        <v>896636</v>
+        <v>37294</v>
       </c>
       <c r="C8">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>518</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1281212</v>
+        <v>142</v>
       </c>
       <c r="B9">
-        <v>1252524</v>
+        <v>33720</v>
       </c>
       <c r="C9">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>518</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>886004</v>
+        <v>208</v>
       </c>
       <c r="B10">
-        <v>970132</v>
+        <v>32770</v>
       </c>
       <c r="C10">
-        <v>781</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>517</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>825714</v>
+        <v>152</v>
       </c>
       <c r="B11">
-        <v>892618</v>
+        <v>32892</v>
       </c>
       <c r="C11">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>611</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>824276</v>
+        <v>154</v>
       </c>
       <c r="B12">
-        <v>1112930</v>
+        <v>34970</v>
       </c>
       <c r="C12">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>883</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1112998</v>
+        <v>152</v>
       </c>
       <c r="B13">
-        <v>898044</v>
+        <v>34434</v>
       </c>
       <c r="C13">
-        <v>694</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>904630</v>
+        <v>152</v>
       </c>
       <c r="B14">
-        <v>891300</v>
+        <v>37554</v>
       </c>
       <c r="C14">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>565</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1325126</v>
+        <v>152</v>
       </c>
       <c r="B15">
-        <v>1025076</v>
+        <v>33602</v>
       </c>
       <c r="C15">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>660</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1097764</v>
+        <v>152</v>
       </c>
       <c r="B16">
-        <v>889604</v>
+        <v>33316</v>
       </c>
       <c r="C16">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>557</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>994240</v>
+        <v>164</v>
       </c>
       <c r="B17">
-        <v>1077104</v>
+        <v>35476</v>
       </c>
       <c r="C17">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>557</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2799899</v>
+        <v>154</v>
       </c>
       <c r="B18">
-        <v>1100760</v>
+        <v>33384</v>
       </c>
       <c r="C18">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>793</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1109164</v>
+        <v>142</v>
       </c>
       <c r="B19">
-        <v>901818</v>
+        <v>35102</v>
       </c>
       <c r="C19">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>594</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>919196</v>
+        <v>144</v>
       </c>
       <c r="B20">
-        <v>891758</v>
+        <v>34732</v>
       </c>
       <c r="C20">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>557</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>968304</v>
+        <v>148</v>
       </c>
       <c r="B21">
-        <v>1044048</v>
+        <v>33356</v>
       </c>
       <c r="C21">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1596</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1088940</v>
+        <v>214</v>
       </c>
       <c r="B22">
-        <v>890500</v>
+        <v>62142</v>
       </c>
       <c r="C22">
-        <v>1554</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1568</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>3657316</v>
+        <v>144</v>
       </c>
       <c r="B23">
-        <v>933668</v>
+        <v>33530</v>
       </c>
       <c r="C23">
-        <v>1546</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1621</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2503295</v>
+        <v>154</v>
       </c>
       <c r="B24">
-        <v>1499146</v>
+        <v>33828</v>
       </c>
       <c r="C24">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>745</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2468534</v>
+        <v>152</v>
       </c>
       <c r="B25">
-        <v>899188</v>
+        <v>33972</v>
       </c>
       <c r="C25">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>2136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2455330</v>
+        <v>144</v>
       </c>
       <c r="B26">
-        <v>13460768</v>
+        <v>34000</v>
       </c>
       <c r="C26">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2428152</v>
+        <v>152</v>
       </c>
       <c r="B27">
-        <v>20805438</v>
+        <v>35138</v>
       </c>
       <c r="C27">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>584</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1469452</v>
+        <v>142</v>
       </c>
       <c r="B28">
-        <v>1127664</v>
+        <v>35338</v>
       </c>
       <c r="C28">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>706</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1668854</v>
+        <v>154</v>
       </c>
       <c r="B29">
-        <v>901060</v>
+        <v>36426</v>
       </c>
       <c r="C29">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>600</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>871168</v>
+        <v>164</v>
       </c>
       <c r="B30">
-        <v>839870</v>
+        <v>33072</v>
       </c>
       <c r="C30">
-        <v>677</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>570</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1022470</v>
+        <v>150</v>
       </c>
       <c r="B31">
-        <v>2027046</v>
+        <v>38566</v>
       </c>
       <c r="C31">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>659</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1197862</v>
+        <v>150</v>
       </c>
       <c r="B32">
-        <v>910910</v>
+        <v>35740</v>
       </c>
       <c r="C32">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>564</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>849298</v>
+        <v>164</v>
       </c>
       <c r="B33">
-        <v>933034</v>
+        <v>33180</v>
       </c>
       <c r="C33">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>585</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>996706</v>
+        <v>150</v>
       </c>
       <c r="B34">
-        <v>1532564</v>
+        <v>33748</v>
       </c>
       <c r="C34">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>663</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>847166</v>
+        <v>152</v>
       </c>
       <c r="B35">
-        <v>901178</v>
+        <v>34374</v>
       </c>
       <c r="C35">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>586</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>842550</v>
+        <v>150</v>
       </c>
       <c r="B36">
-        <v>927792</v>
+        <v>34176</v>
       </c>
       <c r="C36">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>578</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>850424</v>
+        <v>154</v>
       </c>
       <c r="B37">
-        <v>1509370</v>
+        <v>34410</v>
       </c>
       <c r="C37">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>727</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1004766</v>
+        <v>152</v>
       </c>
       <c r="B38">
-        <v>978840</v>
+        <v>34552</v>
       </c>
       <c r="C38">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>585</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>843554</v>
+        <v>152</v>
       </c>
       <c r="B39">
-        <v>944112</v>
+        <v>34390</v>
       </c>
       <c r="C39">
-        <v>949</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>966</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>835466</v>
+        <v>144</v>
       </c>
       <c r="B40">
-        <v>1116846</v>
+        <v>33594</v>
       </c>
       <c r="C40">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>681</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>842486</v>
+        <v>164</v>
       </c>
       <c r="B41">
-        <v>983962</v>
+        <v>34092</v>
       </c>
       <c r="C41">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>630</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>888416</v>
+        <v>164</v>
       </c>
       <c r="B42">
-        <v>1168992</v>
+        <v>34640</v>
       </c>
       <c r="C42">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>582</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>901726</v>
+        <v>142</v>
       </c>
       <c r="B43">
-        <v>1089016</v>
+        <v>32902</v>
       </c>
       <c r="C43">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>909</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1103008</v>
+        <v>156</v>
       </c>
       <c r="B44">
-        <v>905022</v>
+        <v>34104</v>
       </c>
       <c r="C44">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>582</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1052658</v>
+        <v>154</v>
       </c>
       <c r="B45">
-        <v>966830</v>
+        <v>33772</v>
       </c>
       <c r="C45">
-        <v>1306</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>889</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>968378</v>
+        <v>150</v>
       </c>
       <c r="B46">
-        <v>1039756</v>
+        <v>36486</v>
       </c>
       <c r="C46">
-        <v>1102</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>702</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1144880</v>
+        <v>144</v>
       </c>
       <c r="B47">
-        <v>899342</v>
+        <v>34464</v>
       </c>
       <c r="C47">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1506</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>962208</v>
+        <v>152</v>
       </c>
       <c r="B48">
-        <v>1701640</v>
+        <v>34698</v>
       </c>
       <c r="C48">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>569</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>958208</v>
+        <v>142</v>
       </c>
       <c r="B49">
-        <v>10785496</v>
+        <v>35584</v>
       </c>
       <c r="C49">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>746</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1142432</v>
+        <v>142</v>
       </c>
       <c r="B50">
-        <v>856766</v>
+        <v>34296</v>
       </c>
       <c r="C50">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>991</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>919120</v>
+        <v>152</v>
       </c>
       <c r="B51">
-        <v>1018572</v>
+        <v>34434</v>
       </c>
       <c r="C51">
-        <v>553</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>571</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1109422</v>
+        <v>166</v>
       </c>
       <c r="B52">
-        <v>837934</v>
+        <v>34402</v>
       </c>
       <c r="C52">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>717</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1133586</v>
+        <v>176</v>
       </c>
       <c r="B53">
-        <v>838712</v>
+        <v>35380</v>
       </c>
       <c r="C53">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>574</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>910650</v>
+        <v>210</v>
       </c>
       <c r="B54">
-        <v>942476</v>
+        <v>76324</v>
       </c>
       <c r="C54">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>574</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1491146</v>
+        <v>142</v>
       </c>
       <c r="B55">
-        <v>1063672</v>
+        <v>33194</v>
       </c>
       <c r="C55">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>677</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1071234</v>
+        <v>142</v>
       </c>
       <c r="B56">
-        <v>906176</v>
+        <v>34226</v>
       </c>
       <c r="C56">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>610</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>962142</v>
+        <v>144</v>
       </c>
       <c r="B57">
-        <v>1524888</v>
+        <v>34286</v>
       </c>
       <c r="C57">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>674</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>907574</v>
+        <v>154</v>
       </c>
       <c r="B58">
-        <v>1074640</v>
+        <v>36436</v>
       </c>
       <c r="C58">
-        <v>953</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>964</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1022218</v>
+        <v>142</v>
       </c>
       <c r="B59">
-        <v>902332</v>
+        <v>33228</v>
       </c>
       <c r="C59">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>568</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>835472</v>
+        <v>142</v>
       </c>
       <c r="B60">
-        <v>905782</v>
+        <v>33500</v>
       </c>
       <c r="C60">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>725</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>852020</v>
+        <v>204</v>
       </c>
       <c r="B61">
-        <v>1071500</v>
+        <v>32584</v>
       </c>
       <c r="C61">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>562</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1140522</v>
+        <v>144</v>
       </c>
       <c r="B62">
-        <v>946608</v>
+        <v>34200</v>
       </c>
       <c r="C62">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>603</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1214050</v>
+        <v>150</v>
       </c>
       <c r="B63">
-        <v>1297950</v>
+        <v>35326</v>
       </c>
       <c r="C63">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>765</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>831582</v>
+        <v>210</v>
       </c>
       <c r="B64">
-        <v>2803456</v>
+        <v>33952</v>
       </c>
       <c r="C64">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>3416</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>832028</v>
+        <v>150</v>
       </c>
       <c r="B65">
-        <v>944958</v>
+        <v>33118</v>
       </c>
       <c r="C65">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>2334</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>880974</v>
+        <v>150</v>
       </c>
       <c r="B66">
-        <v>934132</v>
+        <v>36130</v>
       </c>
       <c r="C66">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>7048</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1222944</v>
+        <v>142</v>
       </c>
       <c r="B67">
-        <v>1209980</v>
+        <v>33878</v>
       </c>
       <c r="C67">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>1860</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>906410</v>
+        <v>160</v>
       </c>
       <c r="B68">
-        <v>1313408</v>
+        <v>36734</v>
       </c>
       <c r="C68">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>1557</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1027794</v>
+        <v>142</v>
       </c>
       <c r="B69">
-        <v>1010564</v>
+        <v>34138</v>
       </c>
       <c r="C69">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>3229</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>930966</v>
+        <v>142</v>
       </c>
       <c r="B70">
-        <v>1118464</v>
+        <v>33724</v>
       </c>
       <c r="C70">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>1701</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>896908</v>
+        <v>154</v>
       </c>
       <c r="B71">
-        <v>939810</v>
+        <v>32748</v>
       </c>
       <c r="C71">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>1551</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1019756</v>
+        <v>144</v>
       </c>
       <c r="B72">
-        <v>939158</v>
+        <v>34490</v>
       </c>
       <c r="C72">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>4054</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1219978</v>
+        <v>144</v>
       </c>
       <c r="B73">
-        <v>1067284</v>
+        <v>33224</v>
       </c>
       <c r="C73">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>1592</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>833600</v>
+        <v>162</v>
       </c>
       <c r="B74">
-        <v>1309750</v>
+        <v>33180</v>
       </c>
       <c r="C74">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1639</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>868190</v>
+        <v>144</v>
       </c>
       <c r="B75">
-        <v>957140</v>
+        <v>33074</v>
       </c>
       <c r="C75">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>923</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>833456</v>
+        <v>142</v>
       </c>
       <c r="B76">
-        <v>1100754</v>
+        <v>34210</v>
       </c>
       <c r="C76">
-        <v>862</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>1874</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>988340</v>
+        <v>248</v>
       </c>
       <c r="B77">
-        <v>2548786</v>
+        <v>33910</v>
       </c>
       <c r="C77">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>1678</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>836046</v>
+        <v>152</v>
       </c>
       <c r="B78">
-        <v>848842</v>
+        <v>33034</v>
       </c>
       <c r="C78">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>1742</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>861792</v>
+        <v>142</v>
       </c>
       <c r="B79">
-        <v>839548</v>
+        <v>33438</v>
       </c>
       <c r="C79">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>1733</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>902064</v>
+        <v>142</v>
       </c>
       <c r="B80">
-        <v>898832</v>
+        <v>33822</v>
       </c>
       <c r="C80">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>2028</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1104474</v>
+        <v>168</v>
       </c>
       <c r="B81">
-        <v>902390</v>
+        <v>33604</v>
       </c>
       <c r="C81">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>1291</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>950116</v>
+        <v>142</v>
       </c>
       <c r="B82">
-        <v>1107502</v>
+        <v>37446</v>
       </c>
       <c r="C82">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>1752</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1291744</v>
+        <v>150</v>
       </c>
       <c r="B83">
-        <v>39280874</v>
+        <v>34062</v>
       </c>
       <c r="C83">
-        <v>1060</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>2095</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1118040</v>
+        <v>160</v>
       </c>
       <c r="B84">
-        <v>926568</v>
+        <v>34446</v>
       </c>
       <c r="C84">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>7554</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>919732</v>
+        <v>166</v>
       </c>
       <c r="B85">
-        <v>914680</v>
+        <v>34598</v>
       </c>
       <c r="C85">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>1743</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>920900</v>
+        <v>144</v>
       </c>
       <c r="B86">
-        <v>1074096</v>
+        <v>37464</v>
       </c>
       <c r="C86">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>1712</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1058814</v>
+        <v>154</v>
       </c>
       <c r="B87">
-        <v>925112</v>
+        <v>33192</v>
       </c>
       <c r="C87">
-        <v>1455</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>1660</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1022182</v>
+        <v>146</v>
       </c>
       <c r="B88">
-        <v>935022</v>
+        <v>32986</v>
       </c>
       <c r="C88">
-        <v>979</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>1506</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>958144</v>
+        <v>144</v>
       </c>
       <c r="B89">
-        <v>1110746</v>
+        <v>34200</v>
       </c>
       <c r="C89">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>1740</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1124848</v>
+        <v>152</v>
       </c>
       <c r="B90">
-        <v>900742</v>
+        <v>34398</v>
       </c>
       <c r="C90">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>1577</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>937262</v>
+        <v>144</v>
       </c>
       <c r="B91">
-        <v>894662</v>
+        <v>38796</v>
       </c>
       <c r="C91">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>1852</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>950062</v>
+        <v>152</v>
       </c>
       <c r="B92">
-        <v>1077632</v>
+        <v>33578</v>
       </c>
       <c r="C92">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>1620</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1022298</v>
+        <v>166</v>
       </c>
       <c r="B93">
-        <v>1288518</v>
+        <v>33654</v>
       </c>
       <c r="C93">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>1990</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>871914</v>
+        <v>150</v>
       </c>
       <c r="B94">
-        <v>907428</v>
+        <v>36128</v>
       </c>
       <c r="C94">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1519</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>871254</v>
+        <v>144</v>
       </c>
       <c r="B95">
-        <v>914454</v>
+        <v>33254</v>
       </c>
       <c r="C95">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>1770</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>876688</v>
+        <v>142</v>
       </c>
       <c r="B96">
-        <v>931036</v>
+        <v>33780</v>
       </c>
       <c r="C96">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>1605</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>933584</v>
+        <v>144</v>
       </c>
       <c r="B97">
-        <v>948626</v>
+        <v>33506</v>
       </c>
       <c r="C97">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>1639</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1002986</v>
+        <v>142</v>
       </c>
       <c r="B98">
-        <v>1274946</v>
+        <v>34620</v>
       </c>
       <c r="C98">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>2562</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>2637160</v>
+        <v>142</v>
       </c>
       <c r="B99">
-        <v>955760</v>
+        <v>33978</v>
       </c>
       <c r="C99">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>1725</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1301742</v>
+        <v>154</v>
       </c>
       <c r="B100">
-        <v>944918</v>
+        <v>34202</v>
       </c>
       <c r="C100">
-        <v>757</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>1987</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>920902</v>
+        <v>144</v>
       </c>
       <c r="B101">
-        <v>1099714</v>
+        <v>33630</v>
       </c>
       <c r="C101">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>1651</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <f>AVERAGE(A2:A101)</f>
-        <v>1113380.56</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="B103">
-        <f>AVERAGE(B2:B101)</f>
-        <v>1863987.92</v>
+        <f t="shared" ref="B103:D103" si="0">AVERAGE(B2:B101)</f>
+        <v>35167.360000000001</v>
       </c>
       <c r="C103">
-        <f>AVERAGE(C2:C101)</f>
-        <v>792.45</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="D103">
-        <f>AVERAGE(D2:D101)</f>
-        <v>1314.86</v>
+        <f t="shared" si="0"/>
+        <v>21.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D103"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A86" zoomScale="136" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>244</v>
+      </c>
+      <c r="B2">
+        <v>38060</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>201</v>
+      </c>
+      <c r="B3">
+        <v>40006</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>39316</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>39954</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <v>39316</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>166</v>
+      </c>
+      <c r="B7">
+        <v>40506</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>152</v>
+      </c>
+      <c r="B8">
+        <v>39272</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>168</v>
+      </c>
+      <c r="B9">
+        <v>38976</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>156</v>
+      </c>
+      <c r="B10">
+        <v>39512</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>148</v>
+      </c>
+      <c r="B11">
+        <v>39702</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>314</v>
+      </c>
+      <c r="B12">
+        <v>41662</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>144</v>
+      </c>
+      <c r="B13">
+        <v>38970</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>188</v>
+      </c>
+      <c r="B14">
+        <v>40360</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>280</v>
+      </c>
+      <c r="B15">
+        <v>39190</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>168</v>
+      </c>
+      <c r="B16">
+        <v>38570</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>148</v>
+      </c>
+      <c r="B17">
+        <v>39260</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>146</v>
+      </c>
+      <c r="B18">
+        <v>40482</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>146</v>
+      </c>
+      <c r="B19">
+        <v>40258</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>198</v>
+      </c>
+      <c r="B20">
+        <v>38904</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>156</v>
+      </c>
+      <c r="B21">
+        <v>38598</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>142</v>
+      </c>
+      <c r="B22">
+        <v>39474</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>156</v>
+      </c>
+      <c r="B23">
+        <v>38662</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>158</v>
+      </c>
+      <c r="B24">
+        <v>43930</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>176</v>
+      </c>
+      <c r="B25">
+        <v>39938</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>146</v>
+      </c>
+      <c r="B26">
+        <v>40170</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>146</v>
+      </c>
+      <c r="B27">
+        <v>38658</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>158</v>
+      </c>
+      <c r="B28">
+        <v>40440</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>166</v>
+      </c>
+      <c r="B29">
+        <v>39796</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>166</v>
+      </c>
+      <c r="B30">
+        <v>40822</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>152</v>
+      </c>
+      <c r="B31">
+        <v>38078</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>262</v>
+      </c>
+      <c r="B32">
+        <v>39030</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>168</v>
+      </c>
+      <c r="B33">
+        <v>44384</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>166</v>
+      </c>
+      <c r="B34">
+        <v>38984</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>150</v>
+      </c>
+      <c r="B35">
+        <v>39306</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>156</v>
+      </c>
+      <c r="B36">
+        <v>38552</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>144</v>
+      </c>
+      <c r="B37">
+        <v>39158</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>154</v>
+      </c>
+      <c r="B38">
+        <v>38456</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>326</v>
+      </c>
+      <c r="B39">
+        <v>40986</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>154</v>
+      </c>
+      <c r="B40">
+        <v>39870</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>148</v>
+      </c>
+      <c r="B41">
+        <v>39072</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>154</v>
+      </c>
+      <c r="B42">
+        <v>38244</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>148</v>
+      </c>
+      <c r="B43">
+        <v>39352</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>148</v>
+      </c>
+      <c r="B44">
+        <v>38698</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>346</v>
+      </c>
+      <c r="B45">
+        <v>43158</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>148</v>
+      </c>
+      <c r="B46">
+        <v>39512</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>142</v>
+      </c>
+      <c r="B47">
+        <v>40218</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>144</v>
+      </c>
+      <c r="B48">
+        <v>40534</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>146</v>
+      </c>
+      <c r="B49">
+        <v>40010</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>146</v>
+      </c>
+      <c r="B50">
+        <v>40044</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>150</v>
+      </c>
+      <c r="B51">
+        <v>42646</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>148</v>
+      </c>
+      <c r="B52">
+        <v>40060</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>152</v>
+      </c>
+      <c r="B53">
+        <v>40158</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>148</v>
+      </c>
+      <c r="B54">
+        <v>40466</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>144</v>
+      </c>
+      <c r="B55">
+        <v>37964</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>216</v>
+      </c>
+      <c r="B56">
+        <v>38544</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>144</v>
+      </c>
+      <c r="B57">
+        <v>41878</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>152</v>
+      </c>
+      <c r="B58">
+        <v>38084</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>156</v>
+      </c>
+      <c r="B59">
+        <v>39508</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>144</v>
+      </c>
+      <c r="B60">
+        <v>41802</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>146</v>
+      </c>
+      <c r="B61">
+        <v>40020</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>142</v>
+      </c>
+      <c r="B62">
+        <v>38904</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>146</v>
+      </c>
+      <c r="B63">
+        <v>38936</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <v>40154</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>144</v>
+      </c>
+      <c r="B65">
+        <v>43890</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>216</v>
+      </c>
+      <c r="B66">
+        <v>42748</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>148</v>
+      </c>
+      <c r="B67">
+        <v>39436</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>148</v>
+      </c>
+      <c r="B68">
+        <v>38790</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>142</v>
+      </c>
+      <c r="B69">
+        <v>38824</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>144</v>
+      </c>
+      <c r="B70">
+        <v>39162</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>154</v>
+      </c>
+      <c r="B71">
+        <v>38398</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>148</v>
+      </c>
+      <c r="B72">
+        <v>39486</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>146</v>
+      </c>
+      <c r="B73">
+        <v>38628</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>148</v>
+      </c>
+      <c r="B74">
+        <v>38462</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>170</v>
+      </c>
+      <c r="B75">
+        <v>41602</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>156</v>
+      </c>
+      <c r="B76">
+        <v>39452</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>146</v>
+      </c>
+      <c r="B77">
+        <v>38926</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>244</v>
+      </c>
+      <c r="B78">
+        <v>38912</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>142</v>
+      </c>
+      <c r="B79">
+        <v>40086</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>144</v>
+      </c>
+      <c r="B80">
+        <v>39682</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>144</v>
+      </c>
+      <c r="B81">
+        <v>38542</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>290</v>
+      </c>
+      <c r="B82">
+        <v>39116</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>238</v>
+      </c>
+      <c r="B83">
+        <v>41802</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>158</v>
+      </c>
+      <c r="B84">
+        <v>44152</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>148</v>
+      </c>
+      <c r="B85">
+        <v>41816</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>142</v>
+      </c>
+      <c r="B86">
+        <v>38850</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>166</v>
+      </c>
+      <c r="B87">
+        <v>38854</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>146</v>
+      </c>
+      <c r="B88">
+        <v>39526</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>180</v>
+      </c>
+      <c r="B89">
+        <v>39322</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>156</v>
+      </c>
+      <c r="B90">
+        <v>39138</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>148</v>
+      </c>
+      <c r="B91">
+        <v>39086</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>158</v>
+      </c>
+      <c r="B92">
+        <v>39558</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>142</v>
+      </c>
+      <c r="B93">
+        <v>41446</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>146</v>
+      </c>
+      <c r="B94">
+        <v>52926</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>146</v>
+      </c>
+      <c r="B95">
+        <v>40010</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>156</v>
+      </c>
+      <c r="B96">
+        <v>40714</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>156</v>
+      </c>
+      <c r="B97">
+        <v>38476</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>144</v>
+      </c>
+      <c r="B98">
+        <v>39284</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>156</v>
+      </c>
+      <c r="B99">
+        <v>39036</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>146</v>
+      </c>
+      <c r="B100">
+        <v>39116</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>172</v>
+      </c>
+      <c r="B101">
+        <v>39222</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f>AVERAGE(A2:A101)</f>
+        <v>168.17</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ref="B103:D103" si="0">AVERAGE(B2:B101)</f>
+        <v>39940.1</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="0"/>
+        <v>25.58</v>
       </c>
     </row>
   </sheetData>

--- a/csc-501-project-1/measurements.xlsx
+++ b/csc-501-project-1/measurements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Loops" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="Process running" sheetId="7" r:id="rId7"/>
     <sheet name="Thread creation" sheetId="8" r:id="rId8"/>
     <sheet name="Thread running" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
+    <sheet name="Context switch cycles" sheetId="10" r:id="rId10"/>
+    <sheet name="Context switch time" sheetId="11" r:id="rId11"/>
+    <sheet name="Report" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Without for cycles</t>
   </si>
@@ -121,6 +123,93 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Cycles without pipe</t>
+  </si>
+  <si>
+    <t>Cycles with pipe (sending)</t>
+  </si>
+  <si>
+    <t>Cycles with pipe (receiving)</t>
+  </si>
+  <si>
+    <t>Sending time</t>
+  </si>
+  <si>
+    <t>Receiving time</t>
+  </si>
+  <si>
+    <t>received-sent</t>
+  </si>
+  <si>
+    <t>Context switch time (G-F-C)</t>
+  </si>
+  <si>
+    <t>Time without pipe</t>
+  </si>
+  <si>
+    <t>Time with pipe (sending)</t>
+  </si>
+  <si>
+    <t>Time with pipe (receiving)</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Reading time</t>
+  </si>
+  <si>
+    <t>System call</t>
+  </si>
+  <si>
+    <t>Process Creation</t>
+  </si>
+  <si>
+    <t>Process running</t>
+  </si>
+  <si>
+    <t>Thread creation</t>
+  </si>
+  <si>
+    <t>Thread running</t>
+  </si>
+  <si>
+    <t>Context switch</t>
+  </si>
+  <si>
+    <t>Procedure call 0</t>
+  </si>
+  <si>
+    <t>Procedure call 1</t>
+  </si>
+  <si>
+    <t>Procedure call 2</t>
+  </si>
+  <si>
+    <t>Procedure call 3</t>
+  </si>
+  <si>
+    <t>Procedure call 4</t>
+  </si>
+  <si>
+    <t>Procedure call 5</t>
+  </si>
+  <si>
+    <t>Procedure call 6</t>
+  </si>
+  <si>
+    <t>Procedure call 7</t>
+  </si>
+  <si>
+    <t>Overheads</t>
+  </si>
+  <si>
+    <t>Time (microseconds)</t>
+  </si>
 </sst>
 </file>
 
@@ -135,15 +224,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,12 +252,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,6 +288,1939 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cycles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Loop</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Reading time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Procedure call 0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Procedure call 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Procedure call 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Procedure call 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Procedure call 4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Procedure call 5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Procedure call 6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Procedure call 7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>System call</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Process Creation</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Process running</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Thread creation</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Thread running</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Context switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>38840.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164886.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>214.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>221.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4847.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>486234.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.86398792E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35167.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39940.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>243256.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="42125296"/>
+        <c:axId val="43564416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="42125296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43564416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43564416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42125296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (microseconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Loop</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Reading time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Procedure call 0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Procedure call 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Procedure call 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Procedure call 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Procedure call 4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Procedure call 5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Procedure call 6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Procedure call 7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>System call</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Process Creation</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Process running</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Thread creation</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Thread running</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Context switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>23.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1314.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>161.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="42110832"/>
+        <c:axId val="42832544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="42110832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42832544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42832544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42110832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,9 +2486,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="118" workbookViewId="0"/>
+    <sheetView showRuler="0" zoomScale="118" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1860,6 +3915,21 @@
         <v>24</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <f>AVERAGE(B2:B101)</f>
+        <v>38840.33</v>
+      </c>
+      <c r="D103">
+        <f>AVERAGE(D2:D101)</f>
+        <v>23.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1867,22 +3937,6176 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" zoomScale="135" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>9352</v>
+      </c>
+      <c r="C2">
+        <f>B2-A2</f>
+        <v>9208</v>
+      </c>
+      <c r="D2">
+        <v>144</v>
+      </c>
+      <c r="E2">
+        <v>7174</v>
+      </c>
+      <c r="F2">
+        <f>E2-D2</f>
+        <v>7030</v>
+      </c>
+      <c r="G2">
+        <v>221534</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2-C2</f>
+        <v>205296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>210</v>
+      </c>
+      <c r="B3">
+        <v>9154</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3-A3</f>
+        <v>8944</v>
+      </c>
+      <c r="D3">
+        <v>154</v>
+      </c>
+      <c r="E3">
+        <v>5724</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">E3-D3</f>
+        <v>5570</v>
+      </c>
+      <c r="G3">
+        <v>215862</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">G3-F3-C3</f>
+        <v>201348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>164</v>
+      </c>
+      <c r="B4">
+        <v>9910</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>9746</v>
+      </c>
+      <c r="D4">
+        <v>142</v>
+      </c>
+      <c r="E4">
+        <v>6136</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>5994</v>
+      </c>
+      <c r="G4">
+        <v>228166</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>212426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>154</v>
+      </c>
+      <c r="B5">
+        <v>10188</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>10034</v>
+      </c>
+      <c r="D5">
+        <v>154</v>
+      </c>
+      <c r="E5">
+        <v>8226</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>8072</v>
+      </c>
+      <c r="G5">
+        <v>236220</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>218114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>144</v>
+      </c>
+      <c r="B6">
+        <v>9008</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8864</v>
+      </c>
+      <c r="D6">
+        <v>164</v>
+      </c>
+      <c r="E6">
+        <v>6084</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5920</v>
+      </c>
+      <c r="G6">
+        <v>234094</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>219310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>156</v>
+      </c>
+      <c r="B7">
+        <v>9330</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>9174</v>
+      </c>
+      <c r="D7">
+        <v>164</v>
+      </c>
+      <c r="E7">
+        <v>6154</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>5990</v>
+      </c>
+      <c r="G7">
+        <v>652724</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>637560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>146</v>
+      </c>
+      <c r="B8">
+        <v>9328</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>9182</v>
+      </c>
+      <c r="D8">
+        <v>142</v>
+      </c>
+      <c r="E8">
+        <v>6130</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5988</v>
+      </c>
+      <c r="G8">
+        <v>237234</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>222064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>230</v>
+      </c>
+      <c r="B9">
+        <v>9984</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>9754</v>
+      </c>
+      <c r="D9">
+        <v>152</v>
+      </c>
+      <c r="E9">
+        <v>6084</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5932</v>
+      </c>
+      <c r="G9">
+        <v>262650</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>246964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>164</v>
+      </c>
+      <c r="B10">
+        <v>9326</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>9162</v>
+      </c>
+      <c r="D10">
+        <v>166</v>
+      </c>
+      <c r="E10">
+        <v>7580</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>7414</v>
+      </c>
+      <c r="G10">
+        <v>296586</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>280010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>166</v>
+      </c>
+      <c r="B11">
+        <v>9746</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>9580</v>
+      </c>
+      <c r="D11">
+        <v>146</v>
+      </c>
+      <c r="E11">
+        <v>7735</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>7589</v>
+      </c>
+      <c r="G11">
+        <v>288244</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>271075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>144</v>
+      </c>
+      <c r="B12">
+        <v>9924</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>9780</v>
+      </c>
+      <c r="D12">
+        <v>298</v>
+      </c>
+      <c r="E12">
+        <v>6168</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5870</v>
+      </c>
+      <c r="G12">
+        <v>288270</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>272620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>9572</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>9422</v>
+      </c>
+      <c r="D13">
+        <v>144</v>
+      </c>
+      <c r="E13">
+        <v>5584</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5440</v>
+      </c>
+      <c r="G13">
+        <v>292804</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>277942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>156</v>
+      </c>
+      <c r="B14">
+        <v>9386</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>9230</v>
+      </c>
+      <c r="D14">
+        <v>146</v>
+      </c>
+      <c r="E14">
+        <v>6366</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>6220</v>
+      </c>
+      <c r="G14">
+        <v>291640</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>276190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>222</v>
+      </c>
+      <c r="B15">
+        <v>8550</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>8328</v>
+      </c>
+      <c r="D15">
+        <v>168</v>
+      </c>
+      <c r="E15">
+        <v>6670</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>6502</v>
+      </c>
+      <c r="G15">
+        <v>281088</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>266258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>160</v>
+      </c>
+      <c r="B16">
+        <v>22346</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>22186</v>
+      </c>
+      <c r="D16">
+        <v>152</v>
+      </c>
+      <c r="E16">
+        <v>6782</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>6630</v>
+      </c>
+      <c r="G16">
+        <v>286604</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>257788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>152</v>
+      </c>
+      <c r="B17">
+        <v>10034</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>9882</v>
+      </c>
+      <c r="D17">
+        <v>166</v>
+      </c>
+      <c r="E17">
+        <v>8274</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>8108</v>
+      </c>
+      <c r="G17">
+        <v>271968</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>253978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>146</v>
+      </c>
+      <c r="B18">
+        <v>9872</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>9726</v>
+      </c>
+      <c r="D18">
+        <v>144</v>
+      </c>
+      <c r="E18">
+        <v>5698</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5554</v>
+      </c>
+      <c r="G18">
+        <v>273618</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>258338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>154</v>
+      </c>
+      <c r="B19">
+        <v>9774</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>9620</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>6008</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5858</v>
+      </c>
+      <c r="G19">
+        <v>295606</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>280128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>156</v>
+      </c>
+      <c r="B20">
+        <v>9744</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>9588</v>
+      </c>
+      <c r="D20">
+        <v>306</v>
+      </c>
+      <c r="E20">
+        <v>5938</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5632</v>
+      </c>
+      <c r="G20">
+        <v>423412</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>408192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>158</v>
+      </c>
+      <c r="B21">
+        <v>10738</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>10580</v>
+      </c>
+      <c r="D21">
+        <v>164</v>
+      </c>
+      <c r="E21">
+        <v>6010</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5846</v>
+      </c>
+      <c r="G21">
+        <v>226804</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>210378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>156</v>
+      </c>
+      <c r="B22">
+        <v>9684</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>9528</v>
+      </c>
+      <c r="D22">
+        <v>152</v>
+      </c>
+      <c r="E22">
+        <v>6202</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>6050</v>
+      </c>
+      <c r="G22">
+        <v>239428</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>223850</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>210</v>
+      </c>
+      <c r="B23">
+        <v>9602</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>9392</v>
+      </c>
+      <c r="D23">
+        <v>759</v>
+      </c>
+      <c r="E23">
+        <v>8336</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>7577</v>
+      </c>
+      <c r="G23">
+        <v>261910</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>244941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>154</v>
+      </c>
+      <c r="B24">
+        <v>9316</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>9162</v>
+      </c>
+      <c r="D24">
+        <v>142</v>
+      </c>
+      <c r="E24">
+        <v>5866</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>5724</v>
+      </c>
+      <c r="G24">
+        <v>282408</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>267522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>144</v>
+      </c>
+      <c r="B25">
+        <v>9484</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>9340</v>
+      </c>
+      <c r="D25">
+        <v>154</v>
+      </c>
+      <c r="E25">
+        <v>5896</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>5742</v>
+      </c>
+      <c r="G25">
+        <v>287978</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>272896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>144</v>
+      </c>
+      <c r="B26">
+        <v>9500</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>9356</v>
+      </c>
+      <c r="D26">
+        <v>144</v>
+      </c>
+      <c r="E26">
+        <v>6646</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>6502</v>
+      </c>
+      <c r="G26">
+        <v>284164</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>268306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>166</v>
+      </c>
+      <c r="B27">
+        <v>10892</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>10726</v>
+      </c>
+      <c r="D27">
+        <v>152</v>
+      </c>
+      <c r="E27">
+        <v>5768</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>5616</v>
+      </c>
+      <c r="G27">
+        <v>273808</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>257466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>144</v>
+      </c>
+      <c r="B28">
+        <v>9516</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>9372</v>
+      </c>
+      <c r="D28">
+        <v>176</v>
+      </c>
+      <c r="E28">
+        <v>6420</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>6244</v>
+      </c>
+      <c r="G28">
+        <v>264630</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>249014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>160</v>
+      </c>
+      <c r="B29">
+        <v>9678</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>9518</v>
+      </c>
+      <c r="D29">
+        <v>148</v>
+      </c>
+      <c r="E29">
+        <v>6090</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>5942</v>
+      </c>
+      <c r="G29">
+        <v>314652</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>299192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>144</v>
+      </c>
+      <c r="B30">
+        <v>9358</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>9214</v>
+      </c>
+      <c r="D30">
+        <v>154</v>
+      </c>
+      <c r="E30">
+        <v>6406</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>6252</v>
+      </c>
+      <c r="G30">
+        <v>264276</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>248810</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <v>9094</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>8940</v>
+      </c>
+      <c r="D31">
+        <v>164</v>
+      </c>
+      <c r="E31">
+        <v>5912</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>5748</v>
+      </c>
+      <c r="G31">
+        <v>273724</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>259036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>222</v>
+      </c>
+      <c r="B32">
+        <v>9832</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>9610</v>
+      </c>
+      <c r="D32">
+        <v>156</v>
+      </c>
+      <c r="E32">
+        <v>6002</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>5846</v>
+      </c>
+      <c r="G32">
+        <v>257040</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>241584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>152</v>
+      </c>
+      <c r="B33">
+        <v>9064</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>8912</v>
+      </c>
+      <c r="D33">
+        <v>142</v>
+      </c>
+      <c r="E33">
+        <v>6704</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>6562</v>
+      </c>
+      <c r="G33">
+        <v>249818</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>234344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>144</v>
+      </c>
+      <c r="B34">
+        <v>9112</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>8968</v>
+      </c>
+      <c r="D34">
+        <v>186</v>
+      </c>
+      <c r="E34">
+        <v>5900</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>5714</v>
+      </c>
+      <c r="G34">
+        <v>250700</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>236018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>152</v>
+      </c>
+      <c r="B35">
+        <v>10986</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>10834</v>
+      </c>
+      <c r="D35">
+        <v>142</v>
+      </c>
+      <c r="E35">
+        <v>6190</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>6048</v>
+      </c>
+      <c r="G35">
+        <v>393646</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>376764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>212</v>
+      </c>
+      <c r="B36">
+        <v>9484</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>9272</v>
+      </c>
+      <c r="D36">
+        <v>150</v>
+      </c>
+      <c r="E36">
+        <v>5818</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>5668</v>
+      </c>
+      <c r="G36">
+        <v>271940</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>257000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>154</v>
+      </c>
+      <c r="B37">
+        <v>9198</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>9044</v>
+      </c>
+      <c r="D37">
+        <v>154</v>
+      </c>
+      <c r="E37">
+        <v>5856</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>5702</v>
+      </c>
+      <c r="G37">
+        <v>249976</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>235230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>154</v>
+      </c>
+      <c r="B38">
+        <v>9830</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>9676</v>
+      </c>
+      <c r="D38">
+        <v>170</v>
+      </c>
+      <c r="E38">
+        <v>5730</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>5560</v>
+      </c>
+      <c r="G38">
+        <v>364864</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>349628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>146</v>
+      </c>
+      <c r="B39">
+        <v>9078</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>8932</v>
+      </c>
+      <c r="D39">
+        <v>152</v>
+      </c>
+      <c r="E39">
+        <v>5774</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>5622</v>
+      </c>
+      <c r="G39">
+        <v>251652</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>237098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>222</v>
+      </c>
+      <c r="B40">
+        <v>9700</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>9478</v>
+      </c>
+      <c r="D40">
+        <v>160</v>
+      </c>
+      <c r="E40">
+        <v>6744</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>6584</v>
+      </c>
+      <c r="G40">
+        <v>214312</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>198250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>144</v>
+      </c>
+      <c r="B41">
+        <v>9602</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>9458</v>
+      </c>
+      <c r="D41">
+        <v>376</v>
+      </c>
+      <c r="E41">
+        <v>8138</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>7762</v>
+      </c>
+      <c r="G41">
+        <v>216510</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>199290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>154</v>
+      </c>
+      <c r="B42">
+        <v>9432</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>9278</v>
+      </c>
+      <c r="D42">
+        <v>176</v>
+      </c>
+      <c r="E42">
+        <v>5830</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>5654</v>
+      </c>
+      <c r="G42">
+        <v>257772</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>242840</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>230</v>
+      </c>
+      <c r="B43">
+        <v>8978</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>8748</v>
+      </c>
+      <c r="D43">
+        <v>144</v>
+      </c>
+      <c r="E43">
+        <v>6350</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>6206</v>
+      </c>
+      <c r="G43">
+        <v>218610</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>203656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>146</v>
+      </c>
+      <c r="B44">
+        <v>9766</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>9620</v>
+      </c>
+      <c r="D44">
+        <v>142</v>
+      </c>
+      <c r="E44">
+        <v>6176</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>6034</v>
+      </c>
+      <c r="G44">
+        <v>218346</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>202692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>156</v>
+      </c>
+      <c r="B45">
+        <v>9470</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>9314</v>
+      </c>
+      <c r="D45">
+        <v>156</v>
+      </c>
+      <c r="E45">
+        <v>6054</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>5898</v>
+      </c>
+      <c r="G45">
+        <v>218918</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>203706</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>298</v>
+      </c>
+      <c r="B46">
+        <v>11074</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>10776</v>
+      </c>
+      <c r="D46">
+        <v>142</v>
+      </c>
+      <c r="E46">
+        <v>5720</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>5578</v>
+      </c>
+      <c r="G46">
+        <v>243730</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>227376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>144</v>
+      </c>
+      <c r="B47">
+        <v>9386</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>9242</v>
+      </c>
+      <c r="D47">
+        <v>164</v>
+      </c>
+      <c r="E47">
+        <v>6142</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>5978</v>
+      </c>
+      <c r="G47">
+        <v>248848</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>233628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>146</v>
+      </c>
+      <c r="B48">
+        <v>8918</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>8772</v>
+      </c>
+      <c r="D48">
+        <v>150</v>
+      </c>
+      <c r="E48">
+        <v>5944</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>5794</v>
+      </c>
+      <c r="G48">
+        <v>257870</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>243304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>144</v>
+      </c>
+      <c r="B49">
+        <v>10308</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>10164</v>
+      </c>
+      <c r="D49">
+        <v>144</v>
+      </c>
+      <c r="E49">
+        <v>6130</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>5986</v>
+      </c>
+      <c r="G49">
+        <v>216866</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>200716</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>210</v>
+      </c>
+      <c r="B50">
+        <v>8688</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>8478</v>
+      </c>
+      <c r="D50">
+        <v>152</v>
+      </c>
+      <c r="E50">
+        <v>6080</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>5928</v>
+      </c>
+      <c r="G50">
+        <v>218518</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>204112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>144</v>
+      </c>
+      <c r="B51">
+        <v>9340</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>9196</v>
+      </c>
+      <c r="D51">
+        <v>152</v>
+      </c>
+      <c r="E51">
+        <v>6012</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>5860</v>
+      </c>
+      <c r="G51">
+        <v>216922</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>201866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>154</v>
+      </c>
+      <c r="B52">
+        <v>9216</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>9062</v>
+      </c>
+      <c r="D52">
+        <v>156</v>
+      </c>
+      <c r="E52">
+        <v>7016</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>6860</v>
+      </c>
+      <c r="G52">
+        <v>215242</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>199320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>146</v>
+      </c>
+      <c r="B53">
+        <v>9488</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>9342</v>
+      </c>
+      <c r="D53">
+        <v>142</v>
+      </c>
+      <c r="E53">
+        <v>5782</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>5640</v>
+      </c>
+      <c r="G53">
+        <v>216406</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>201424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>156</v>
+      </c>
+      <c r="B54">
+        <v>9516</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>9360</v>
+      </c>
+      <c r="D54">
+        <v>262</v>
+      </c>
+      <c r="E54">
+        <v>6556</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>6294</v>
+      </c>
+      <c r="G54">
+        <v>217640</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>201986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>156</v>
+      </c>
+      <c r="B55">
+        <v>9194</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>9038</v>
+      </c>
+      <c r="D55">
+        <v>152</v>
+      </c>
+      <c r="E55">
+        <v>6408</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>6256</v>
+      </c>
+      <c r="G55">
+        <v>213860</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>198566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>156</v>
+      </c>
+      <c r="B56">
+        <v>9374</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>9218</v>
+      </c>
+      <c r="D56">
+        <v>144</v>
+      </c>
+      <c r="E56">
+        <v>6324</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>6180</v>
+      </c>
+      <c r="G56">
+        <v>214412</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>199014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>146</v>
+      </c>
+      <c r="B57">
+        <v>9718</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>9572</v>
+      </c>
+      <c r="D57">
+        <v>254</v>
+      </c>
+      <c r="E57">
+        <v>7042</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>6788</v>
+      </c>
+      <c r="G57">
+        <v>216636</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>200276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>146</v>
+      </c>
+      <c r="B58">
+        <v>8676</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>8530</v>
+      </c>
+      <c r="D58">
+        <v>152</v>
+      </c>
+      <c r="E58">
+        <v>6810</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>6658</v>
+      </c>
+      <c r="G58">
+        <v>216892</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>201704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>226</v>
+      </c>
+      <c r="B59">
+        <v>9238</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>9012</v>
+      </c>
+      <c r="D59">
+        <v>254</v>
+      </c>
+      <c r="E59">
+        <v>5952</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>5698</v>
+      </c>
+      <c r="G59">
+        <v>214866</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>200156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>146</v>
+      </c>
+      <c r="B60">
+        <v>9180</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>9034</v>
+      </c>
+      <c r="D60">
+        <v>174</v>
+      </c>
+      <c r="E60">
+        <v>6476</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>6302</v>
+      </c>
+      <c r="G60">
+        <v>215586</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>200250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>144</v>
+      </c>
+      <c r="B61">
+        <v>9122</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>8978</v>
+      </c>
+      <c r="D61">
+        <v>142</v>
+      </c>
+      <c r="E61">
+        <v>6980</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>6838</v>
+      </c>
+      <c r="G61">
+        <v>216878</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>201062</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>210</v>
+      </c>
+      <c r="B62">
+        <v>9206</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>8996</v>
+      </c>
+      <c r="D62">
+        <v>142</v>
+      </c>
+      <c r="E62">
+        <v>6232</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>6090</v>
+      </c>
+      <c r="G62">
+        <v>225634</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>210548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>162</v>
+      </c>
+      <c r="B63">
+        <v>9420</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>9258</v>
+      </c>
+      <c r="D63">
+        <v>144</v>
+      </c>
+      <c r="E63">
+        <v>7540</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>7396</v>
+      </c>
+      <c r="G63">
+        <v>335932</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>319278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>144</v>
+      </c>
+      <c r="B64">
+        <v>8830</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>8686</v>
+      </c>
+      <c r="D64">
+        <v>164</v>
+      </c>
+      <c r="E64">
+        <v>6238</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>6074</v>
+      </c>
+      <c r="G64">
+        <v>219430</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>204670</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>154</v>
+      </c>
+      <c r="B65">
+        <v>10322</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>10168</v>
+      </c>
+      <c r="D65">
+        <v>154</v>
+      </c>
+      <c r="E65">
+        <v>6500</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>6346</v>
+      </c>
+      <c r="G65">
+        <v>213066</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>196552</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>144</v>
+      </c>
+      <c r="B66">
+        <v>9316</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>9172</v>
+      </c>
+      <c r="D66">
+        <v>152</v>
+      </c>
+      <c r="E66">
+        <v>6390</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>6238</v>
+      </c>
+      <c r="G66">
+        <v>215618</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>200208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <v>9790</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="3">B67-A67</f>
+        <v>9646</v>
+      </c>
+      <c r="D67">
+        <v>176</v>
+      </c>
+      <c r="E67">
+        <v>6962</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F101" si="4">E67-D67</f>
+        <v>6786</v>
+      </c>
+      <c r="G67">
+        <v>216706</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H101" si="5">G67-F67-C67</f>
+        <v>200274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>154</v>
+      </c>
+      <c r="B68">
+        <v>9578</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>9424</v>
+      </c>
+      <c r="D68">
+        <v>152</v>
+      </c>
+      <c r="E68">
+        <v>5776</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>5624</v>
+      </c>
+      <c r="G68">
+        <v>248408</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>233360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>146</v>
+      </c>
+      <c r="B69">
+        <v>9782</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>9636</v>
+      </c>
+      <c r="D69">
+        <v>144</v>
+      </c>
+      <c r="E69">
+        <v>7072</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>6928</v>
+      </c>
+      <c r="G69">
+        <v>250732</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>234168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>150</v>
+      </c>
+      <c r="B70">
+        <v>9466</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>9316</v>
+      </c>
+      <c r="D70">
+        <v>144</v>
+      </c>
+      <c r="E70">
+        <v>5844</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>5700</v>
+      </c>
+      <c r="G70">
+        <v>290120</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>275104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>144</v>
+      </c>
+      <c r="B71">
+        <v>9532</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>9388</v>
+      </c>
+      <c r="D71">
+        <v>298</v>
+      </c>
+      <c r="E71">
+        <v>7228</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>6930</v>
+      </c>
+      <c r="G71">
+        <v>236254</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>219936</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>144</v>
+      </c>
+      <c r="B72">
+        <v>10580</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>10436</v>
+      </c>
+      <c r="D72">
+        <v>170</v>
+      </c>
+      <c r="E72">
+        <v>5716</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>5546</v>
+      </c>
+      <c r="G72">
+        <v>265176</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>249194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>168</v>
+      </c>
+      <c r="B73">
+        <v>10048</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>9880</v>
+      </c>
+      <c r="D73">
+        <v>154</v>
+      </c>
+      <c r="E73">
+        <v>6074</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>5920</v>
+      </c>
+      <c r="G73">
+        <v>266440</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>250640</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>144</v>
+      </c>
+      <c r="B74">
+        <v>9140</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>8996</v>
+      </c>
+      <c r="D74">
+        <v>418</v>
+      </c>
+      <c r="E74">
+        <v>6112</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>5694</v>
+      </c>
+      <c r="G74">
+        <v>256488</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>241798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>144</v>
+      </c>
+      <c r="B75">
+        <v>9972</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>9828</v>
+      </c>
+      <c r="D75">
+        <v>142</v>
+      </c>
+      <c r="E75">
+        <v>6022</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>5880</v>
+      </c>
+      <c r="G75">
+        <v>274578</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>258870</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>144</v>
+      </c>
+      <c r="B76">
+        <v>9202</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>9058</v>
+      </c>
+      <c r="D76">
+        <v>152</v>
+      </c>
+      <c r="E76">
+        <v>5958</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>5806</v>
+      </c>
+      <c r="G76">
+        <v>217130</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>202266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>152</v>
+      </c>
+      <c r="B77">
+        <v>8704</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>8552</v>
+      </c>
+      <c r="D77">
+        <v>142</v>
+      </c>
+      <c r="E77">
+        <v>6346</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>6204</v>
+      </c>
+      <c r="G77">
+        <v>218110</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>203354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>208</v>
+      </c>
+      <c r="B78">
+        <v>9118</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>8910</v>
+      </c>
+      <c r="D78">
+        <v>166</v>
+      </c>
+      <c r="E78">
+        <v>6342</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>6176</v>
+      </c>
+      <c r="G78">
+        <v>217214</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>202128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>152</v>
+      </c>
+      <c r="B79">
+        <v>9244</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>9092</v>
+      </c>
+      <c r="D79">
+        <v>150</v>
+      </c>
+      <c r="E79">
+        <v>5976</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>5826</v>
+      </c>
+      <c r="G79">
+        <v>219224</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>204306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>152</v>
+      </c>
+      <c r="B80">
+        <v>9156</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>9004</v>
+      </c>
+      <c r="D80">
+        <v>164</v>
+      </c>
+      <c r="E80">
+        <v>8184</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>8020</v>
+      </c>
+      <c r="G80">
+        <v>217878</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>200854</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>146</v>
+      </c>
+      <c r="B81">
+        <v>9768</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>9622</v>
+      </c>
+      <c r="D81">
+        <v>158</v>
+      </c>
+      <c r="E81">
+        <v>6360</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>6202</v>
+      </c>
+      <c r="G81">
+        <v>218114</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>202290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>222</v>
+      </c>
+      <c r="B82">
+        <v>9270</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>9048</v>
+      </c>
+      <c r="D82">
+        <v>152</v>
+      </c>
+      <c r="E82">
+        <v>6086</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>5934</v>
+      </c>
+      <c r="G82">
+        <v>216866</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>201884</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>146</v>
+      </c>
+      <c r="B83">
+        <v>9074</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>8928</v>
+      </c>
+      <c r="D83">
+        <v>154</v>
+      </c>
+      <c r="E83">
+        <v>6178</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>6024</v>
+      </c>
+      <c r="G83">
+        <v>253146</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>238194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>144</v>
+      </c>
+      <c r="B84">
+        <v>9530</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>9386</v>
+      </c>
+      <c r="D84">
+        <v>142</v>
+      </c>
+      <c r="E84">
+        <v>6116</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>5974</v>
+      </c>
+      <c r="G84">
+        <v>262856</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>247496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>144</v>
+      </c>
+      <c r="B85">
+        <v>9576</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>9432</v>
+      </c>
+      <c r="D85">
+        <v>142</v>
+      </c>
+      <c r="E85">
+        <v>6570</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>6428</v>
+      </c>
+      <c r="G85">
+        <v>252066</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>236206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>146</v>
+      </c>
+      <c r="B86">
+        <v>9258</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>9112</v>
+      </c>
+      <c r="D86">
+        <v>142</v>
+      </c>
+      <c r="E86">
+        <v>6046</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>5904</v>
+      </c>
+      <c r="G86">
+        <v>270740</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>255724</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>144</v>
+      </c>
+      <c r="B87">
+        <v>9210</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>9066</v>
+      </c>
+      <c r="D87">
+        <v>166</v>
+      </c>
+      <c r="E87">
+        <v>6144</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>5978</v>
+      </c>
+      <c r="G87">
+        <v>270482</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>255438</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>162</v>
+      </c>
+      <c r="B88">
+        <v>9754</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>9592</v>
+      </c>
+      <c r="D88">
+        <v>154</v>
+      </c>
+      <c r="E88">
+        <v>6220</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>6066</v>
+      </c>
+      <c r="G88">
+        <v>256730</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>241072</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>156</v>
+      </c>
+      <c r="B89">
+        <v>9202</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>9046</v>
+      </c>
+      <c r="D89">
+        <v>142</v>
+      </c>
+      <c r="E89">
+        <v>7198</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>7056</v>
+      </c>
+      <c r="G89">
+        <v>252514</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>236412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>152</v>
+      </c>
+      <c r="B90">
+        <v>9402</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>9250</v>
+      </c>
+      <c r="D90">
+        <v>152</v>
+      </c>
+      <c r="E90">
+        <v>6244</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>6092</v>
+      </c>
+      <c r="G90">
+        <v>331712</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>316370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>144</v>
+      </c>
+      <c r="B91">
+        <v>10038</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>9894</v>
+      </c>
+      <c r="D91">
+        <v>164</v>
+      </c>
+      <c r="E91">
+        <v>6346</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>6182</v>
+      </c>
+      <c r="G91">
+        <v>255412</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="5"/>
+        <v>239336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>240</v>
+      </c>
+      <c r="B92">
+        <v>9982</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>9742</v>
+      </c>
+      <c r="D92">
+        <v>146</v>
+      </c>
+      <c r="E92">
+        <v>6008</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>5862</v>
+      </c>
+      <c r="G92">
+        <v>336573</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="5"/>
+        <v>320969</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>144</v>
+      </c>
+      <c r="B93">
+        <v>9202</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>9058</v>
+      </c>
+      <c r="D93">
+        <v>144</v>
+      </c>
+      <c r="E93">
+        <v>6364</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="4"/>
+        <v>6220</v>
+      </c>
+      <c r="G93">
+        <v>271996</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="5"/>
+        <v>256718</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>146</v>
+      </c>
+      <c r="B94">
+        <v>9132</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>8986</v>
+      </c>
+      <c r="D94">
+        <v>162</v>
+      </c>
+      <c r="E94">
+        <v>6250</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="4"/>
+        <v>6088</v>
+      </c>
+      <c r="G94">
+        <v>253132</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="5"/>
+        <v>238058</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>146</v>
+      </c>
+      <c r="B95">
+        <v>8674</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>8528</v>
+      </c>
+      <c r="D95">
+        <v>142</v>
+      </c>
+      <c r="E95">
+        <v>5916</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>5774</v>
+      </c>
+      <c r="G95">
+        <v>269140</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="5"/>
+        <v>254838</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>156</v>
+      </c>
+      <c r="B96">
+        <v>10542</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>10386</v>
+      </c>
+      <c r="D96">
+        <v>238</v>
+      </c>
+      <c r="E96">
+        <v>6372</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>6134</v>
+      </c>
+      <c r="G96">
+        <v>284936</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="5"/>
+        <v>268416</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>146</v>
+      </c>
+      <c r="B97">
+        <v>11697</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>11551</v>
+      </c>
+      <c r="D97">
+        <v>164</v>
+      </c>
+      <c r="E97">
+        <v>6234</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>6070</v>
+      </c>
+      <c r="G97">
+        <v>253804</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="5"/>
+        <v>236183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>144</v>
+      </c>
+      <c r="B98">
+        <v>9224</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>9080</v>
+      </c>
+      <c r="D98">
+        <v>166</v>
+      </c>
+      <c r="E98">
+        <v>6114</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>5948</v>
+      </c>
+      <c r="G98">
+        <v>256464</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="5"/>
+        <v>241436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>146</v>
+      </c>
+      <c r="B99">
+        <v>9196</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>9050</v>
+      </c>
+      <c r="D99">
+        <v>166</v>
+      </c>
+      <c r="E99">
+        <v>5834</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>5668</v>
+      </c>
+      <c r="G99">
+        <v>254888</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="5"/>
+        <v>240170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>240</v>
+      </c>
+      <c r="B100">
+        <v>9716</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>9476</v>
+      </c>
+      <c r="D100">
+        <v>142</v>
+      </c>
+      <c r="E100">
+        <v>6008</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>5866</v>
+      </c>
+      <c r="G100">
+        <v>270490</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>255148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>154</v>
+      </c>
+      <c r="B101">
+        <v>9338</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>9184</v>
+      </c>
+      <c r="D101">
+        <v>142</v>
+      </c>
+      <c r="E101">
+        <v>6432</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>6290</v>
+      </c>
+      <c r="G101">
+        <v>251404</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="5"/>
+        <v>235930</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <f>AVERAGE(H2:H101)</f>
+        <v>243256.68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="134" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <f>B2-A2</f>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <f>E2-D2</f>
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>141</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2-C2</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3-A3</f>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">E3-D3</f>
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>138</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">G3-F3-C3</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>137</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>138</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>156</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>180</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>181</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>166</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>246</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>160</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>161</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>170</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>162</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>163</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>231</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>647</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>299</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>171</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>163</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>170</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>223</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>185</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>174</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>165</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>162</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>166</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>165</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>165</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>159</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>178</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>185</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>170</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>161</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>159</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>163</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>476</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>146</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>147</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>150</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>236</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>163</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>139</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>139</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>137</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>138</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>156</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>138</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>140</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>140</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>139</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>138</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>144</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>139</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>138</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>138</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>289</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>161</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>160</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>169</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>184</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>174</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>161</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>181</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>219</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>163</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="3">B67-A67</f>
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F101" si="4">E67-D67</f>
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>162</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H101" si="5">G67-F67-C67</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>159</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>138</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>139</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>150</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>168</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>140</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>139</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>139</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>137</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>143</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>137</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>136</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>137</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>143</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>139</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G83">
+        <v>138</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>157</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>139</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G86">
+        <v>139</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>136</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>467</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>140</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>257</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>136</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>138</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>137</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>145</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>137</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>138</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>138</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>144</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>138</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G100">
+        <v>136</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>147</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <f>AVERAGE(H2:H101)</f>
+        <v>161.83000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1">
+        <f>VALUE(Loops!B103)</f>
+        <v>38840.33</v>
+      </c>
+      <c r="C2" s="1">
+        <f>VALUE(Loops!D103)</f>
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
+        <f>VALUE('Reading Time'!B103)</f>
+        <v>164886.87</v>
+      </c>
+      <c r="C3" s="1">
+        <f>VALUE('Reading Time'!D103)</f>
+        <v>98.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
+        <f>VALUE('Procedure cycles'!B103)</f>
+        <v>196.53</v>
+      </c>
+      <c r="C4" s="1">
+        <f>VALUE('Procedure time'!B103)</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1">
+        <f>VALUE('Procedure cycles'!C103)</f>
+        <v>197.52</v>
+      </c>
+      <c r="C5" s="1">
+        <f>VALUE('Procedure time'!C103)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1">
+        <f>VALUE('Procedure cycles'!D103)</f>
+        <v>244.44</v>
+      </c>
+      <c r="C6" s="1">
+        <f>VALUE('Procedure time'!D103)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
+        <f>VALUE('Procedure cycles'!E103)</f>
+        <v>227.5</v>
+      </c>
+      <c r="C7" s="1">
+        <f>VALUE('Procedure time'!E103)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1">
+        <f>VALUE('Procedure cycles'!F103)</f>
+        <v>214.1</v>
+      </c>
+      <c r="C8" s="1">
+        <f>VALUE('Procedure time'!F103)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1">
+        <f>VALUE('Procedure cycles'!G103)</f>
+        <v>234.51</v>
+      </c>
+      <c r="C9" s="1">
+        <f>VALUE('Procedure time'!G103)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1">
+        <f>VALUE('Procedure cycles'!H103)</f>
+        <v>250.5</v>
+      </c>
+      <c r="C10" s="1">
+        <f>VALUE('Procedure time'!H103)</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1">
+        <f>VALUE('Procedure cycles'!I103)</f>
+        <v>221.95</v>
+      </c>
+      <c r="C11" s="1">
+        <f>VALUE('Procedure time'!I103)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1">
+        <f>VALUE('System Call'!B103)</f>
+        <v>4847.25</v>
+      </c>
+      <c r="C12" s="1">
+        <f>VALUE('System Call'!D103)</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1">
+        <f>VALUE('Process creation'!B103)</f>
+        <v>486234.8</v>
+      </c>
+      <c r="C13" s="1">
+        <f>VALUE('Process creation'!D103)</f>
+        <v>153.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1">
+        <f>VALUE('Process running'!B103)</f>
+        <v>1863987.92</v>
+      </c>
+      <c r="C14" s="1">
+        <f>VALUE('Process running'!D103)</f>
+        <v>1314.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1">
+        <f>VALUE('Thread creation'!B103)</f>
+        <v>35167.360000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <f>VALUE('Thread creation'!D103)</f>
+        <v>21.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1">
+        <f>VALUE('Thread running'!B103)</f>
+        <v>39940.1</v>
+      </c>
+      <c r="C16" s="1">
+        <f>VALUE('Thread running'!D103)</f>
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1">
+        <f>VALUE('Context switch cycles'!H103)</f>
+        <v>243256.68</v>
+      </c>
+      <c r="C17" s="1">
+        <f>VALUE('Context switch time'!H103)</f>
+        <v>161.83000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3307,6 +11531,21 @@
         <v>88</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <f>AVERAGE(B2:B101)</f>
+        <v>164886.87</v>
+      </c>
+      <c r="D103">
+        <f>AVERAGE(D2:D101)</f>
+        <v>98.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3314,10 +11553,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6255,6 +14495,45 @@
         <v>248</v>
       </c>
     </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <f>AVERAGE(B2:B101)</f>
+        <v>196.53</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:I103" si="0">AVERAGE(C2:C101)</f>
+        <v>197.52</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="0"/>
+        <v>244.44</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="0"/>
+        <v>227.5</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="0"/>
+        <v>214.1</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="0"/>
+        <v>234.51</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="0"/>
+        <v>250.5</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="0"/>
+        <v>221.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6262,10 +14541,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="113" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9203,6 +17483,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <f>AVERAGE(B2:B101)</f>
+        <v>0.16</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:I103" si="0">AVERAGE(C2:C101)</f>
+        <v>0.15</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9210,10 +17529,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="117" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10638,6 +18958,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <f>AVERAGE(B2:B101)</f>
+        <v>4847.25</v>
+      </c>
+      <c r="D103">
+        <f>AVERAGE(D2:D101)</f>
+        <v>2.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10647,8 +18982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A97" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10678,7 +19014,7 @@
         <v>195</v>
       </c>
       <c r="B2">
-        <v>575968</v>
+        <v>260634</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -10692,7 +19028,7 @@
         <v>150</v>
       </c>
       <c r="B3">
-        <v>210316</v>
+        <v>256820</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10706,7 +19042,7 @@
         <v>144</v>
       </c>
       <c r="B4">
-        <v>205618</v>
+        <v>336148</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10720,7 +19056,7 @@
         <v>142</v>
       </c>
       <c r="B5">
-        <v>417634</v>
+        <v>254450</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10734,7 +19070,7 @@
         <v>142</v>
       </c>
       <c r="B6">
-        <v>209880</v>
+        <v>255002</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10748,7 +19084,7 @@
         <v>199</v>
       </c>
       <c r="B7">
-        <v>254258</v>
+        <v>254684</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -10762,7 +19098,7 @@
         <v>144</v>
       </c>
       <c r="B8">
-        <v>227154</v>
+        <v>252428</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -10776,7 +19112,7 @@
         <v>208</v>
       </c>
       <c r="B9">
-        <v>266376</v>
+        <v>268592</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10790,7 +19126,7 @@
         <v>142</v>
       </c>
       <c r="B10">
-        <v>218798</v>
+        <v>268588</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -10804,7 +19140,7 @@
         <v>142</v>
       </c>
       <c r="B11">
-        <v>219176</v>
+        <v>271248</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -10818,7 +19154,7 @@
         <v>142</v>
       </c>
       <c r="B12">
-        <v>221970</v>
+        <v>301476</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10832,7 +19168,7 @@
         <v>142</v>
       </c>
       <c r="B13">
-        <v>209934</v>
+        <v>293826</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -10846,7 +19182,7 @@
         <v>152</v>
       </c>
       <c r="B14">
-        <v>220504</v>
+        <v>268104</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -10860,7 +19196,7 @@
         <v>142</v>
       </c>
       <c r="B15">
-        <v>210006</v>
+        <v>268788</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -10874,7 +19210,7 @@
         <v>152</v>
       </c>
       <c r="B16">
-        <v>240482</v>
+        <v>270364</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -10888,7 +19224,7 @@
         <v>152</v>
       </c>
       <c r="B17">
-        <v>210968</v>
+        <v>267222</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -10902,7 +19238,7 @@
         <v>142</v>
       </c>
       <c r="B18">
-        <v>225578</v>
+        <v>268172</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10916,7 +19252,7 @@
         <v>144</v>
       </c>
       <c r="B19">
-        <v>254544</v>
+        <v>267692</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10930,7 +19266,7 @@
         <v>152</v>
       </c>
       <c r="B20">
-        <v>221154</v>
+        <v>268324</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -10944,7 +19280,7 @@
         <v>144</v>
       </c>
       <c r="B21">
-        <v>211354</v>
+        <v>267984</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -10958,7 +19294,7 @@
         <v>142</v>
       </c>
       <c r="B22">
-        <v>284864</v>
+        <v>337448</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -10972,7 +19308,7 @@
         <v>152</v>
       </c>
       <c r="B23">
-        <v>229070</v>
+        <v>268830</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -10986,7 +19322,7 @@
         <v>170</v>
       </c>
       <c r="B24">
-        <v>207730</v>
+        <v>271106</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11000,7 +19336,7 @@
         <v>144</v>
       </c>
       <c r="B25">
-        <v>223378</v>
+        <v>267348</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -11014,7 +19350,7 @@
         <v>144</v>
       </c>
       <c r="B26">
-        <v>216880</v>
+        <v>12016854</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -11028,7 +19364,7 @@
         <v>216</v>
       </c>
       <c r="B27">
-        <v>279342</v>
+        <v>302646</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11042,7 +19378,7 @@
         <v>142</v>
       </c>
       <c r="B28">
-        <v>238726</v>
+        <v>631488</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11056,7 +19392,7 @@
         <v>154</v>
       </c>
       <c r="B29">
-        <v>470378</v>
+        <v>276290</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11070,7 +19406,7 @@
         <v>142</v>
       </c>
       <c r="B30">
-        <v>210478</v>
+        <v>273018</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -11084,7 +19420,7 @@
         <v>152</v>
       </c>
       <c r="B31">
-        <v>220570</v>
+        <v>270264</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -11098,7 +19434,7 @@
         <v>182</v>
       </c>
       <c r="B32">
-        <v>328646</v>
+        <v>259462</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -11112,7 +19448,7 @@
         <v>152</v>
       </c>
       <c r="B33">
-        <v>305976</v>
+        <v>256662</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -11126,7 +19462,7 @@
         <v>150</v>
       </c>
       <c r="B34">
-        <v>223000</v>
+        <v>7166282</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -11140,7 +19476,7 @@
         <v>212</v>
       </c>
       <c r="B35">
-        <v>235710</v>
+        <v>816018</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -11154,7 +19490,7 @@
         <v>166</v>
       </c>
       <c r="B36">
-        <v>245190</v>
+        <v>1123956</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -11168,7 +19504,7 @@
         <v>150</v>
       </c>
       <c r="B37">
-        <v>218104</v>
+        <v>256244</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -11182,7 +19518,7 @@
         <v>166</v>
       </c>
       <c r="B38">
-        <v>486152</v>
+        <v>258742</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -11196,7 +19532,7 @@
         <v>144</v>
       </c>
       <c r="B39">
-        <v>224462</v>
+        <v>257312</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -11210,7 +19546,7 @@
         <v>142</v>
       </c>
       <c r="B40">
-        <v>208968</v>
+        <v>253522</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -11224,7 +19560,7 @@
         <v>142</v>
       </c>
       <c r="B41">
-        <v>318030</v>
+        <v>253418</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -11238,7 +19574,7 @@
         <v>154</v>
       </c>
       <c r="B42">
-        <v>244344</v>
+        <v>254070</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -11252,7 +19588,7 @@
         <v>144</v>
       </c>
       <c r="B43">
-        <v>220208</v>
+        <v>253786</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -11266,7 +19602,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>217778</v>
+        <v>268582</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -11280,7 +19616,7 @@
         <v>195</v>
       </c>
       <c r="B45">
-        <v>203332</v>
+        <v>302232</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -11294,7 +19630,7 @@
         <v>154</v>
       </c>
       <c r="B46">
-        <v>206822</v>
+        <v>268924</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -11308,7 +19644,7 @@
         <v>144</v>
       </c>
       <c r="B47">
-        <v>219078</v>
+        <v>268524</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -11322,7 +19658,7 @@
         <v>142</v>
       </c>
       <c r="B48">
-        <v>218166</v>
+        <v>427506</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -11336,7 +19672,7 @@
         <v>144</v>
       </c>
       <c r="B49">
-        <v>281714</v>
+        <v>279012</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -11350,7 +19686,7 @@
         <v>154</v>
       </c>
       <c r="B50">
-        <v>230286</v>
+        <v>270924</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -11364,7 +19700,7 @@
         <v>146</v>
       </c>
       <c r="B51">
-        <v>236450</v>
+        <v>266502</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -11378,7 +19714,7 @@
         <v>142</v>
       </c>
       <c r="B52">
-        <v>235010</v>
+        <v>262744</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -11392,7 +19728,7 @@
         <v>142</v>
       </c>
       <c r="B53">
-        <v>207762</v>
+        <v>265768</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -11406,7 +19742,7 @@
         <v>142</v>
       </c>
       <c r="B54">
-        <v>253592</v>
+        <v>277732</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -11420,7 +19756,7 @@
         <v>144</v>
       </c>
       <c r="B55">
-        <v>223088</v>
+        <v>266132</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -11434,7 +19770,7 @@
         <v>142</v>
       </c>
       <c r="B56">
-        <v>244282</v>
+        <v>267704</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -11448,7 +19784,7 @@
         <v>154</v>
       </c>
       <c r="B57">
-        <v>226874</v>
+        <v>267776</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -11462,7 +19798,7 @@
         <v>142</v>
       </c>
       <c r="B58">
-        <v>206906</v>
+        <v>266324</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -11476,7 +19812,7 @@
         <v>142</v>
       </c>
       <c r="B59">
-        <v>221550</v>
+        <v>299432</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -11490,7 +19826,7 @@
         <v>146</v>
       </c>
       <c r="B60">
-        <v>257708</v>
+        <v>269990</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -11504,7 +19840,7 @@
         <v>152</v>
       </c>
       <c r="B61">
-        <v>245500</v>
+        <v>268180</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -11518,7 +19854,7 @@
         <v>156</v>
       </c>
       <c r="B62">
-        <v>282038</v>
+        <v>284680</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -11532,7 +19868,7 @@
         <v>142</v>
       </c>
       <c r="B63">
-        <v>254770</v>
+        <v>265238</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -11546,7 +19882,7 @@
         <v>142</v>
       </c>
       <c r="B64">
-        <v>228258</v>
+        <v>270468</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -11560,7 +19896,7 @@
         <v>144</v>
       </c>
       <c r="B65">
-        <v>289192</v>
+        <v>267576</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -11574,7 +19910,7 @@
         <v>158</v>
       </c>
       <c r="B66">
-        <v>278242</v>
+        <v>272754</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -11588,7 +19924,7 @@
         <v>154</v>
       </c>
       <c r="B67">
-        <v>282860</v>
+        <v>258392</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -11602,7 +19938,7 @@
         <v>144</v>
       </c>
       <c r="B68">
-        <v>246558</v>
+        <v>395590</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -11616,7 +19952,7 @@
         <v>142</v>
       </c>
       <c r="B69">
-        <v>249246</v>
+        <v>256874</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -11630,7 +19966,7 @@
         <v>142</v>
       </c>
       <c r="B70">
-        <v>259794</v>
+        <v>255952</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -11644,7 +19980,7 @@
         <v>142</v>
       </c>
       <c r="B71">
-        <v>494664</v>
+        <v>252432</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -11658,7 +19994,7 @@
         <v>142</v>
       </c>
       <c r="B72">
-        <v>227596</v>
+        <v>255136</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -11672,7 +20008,7 @@
         <v>142</v>
       </c>
       <c r="B73">
-        <v>204974</v>
+        <v>255512</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -11686,7 +20022,7 @@
         <v>152</v>
       </c>
       <c r="B74">
-        <v>215050</v>
+        <v>371594</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -11700,7 +20036,7 @@
         <v>142</v>
       </c>
       <c r="B75">
-        <v>203378</v>
+        <v>313616</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -11714,7 +20050,7 @@
         <v>142</v>
       </c>
       <c r="B76">
-        <v>234884</v>
+        <v>287918</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -11728,7 +20064,7 @@
         <v>166</v>
       </c>
       <c r="B77">
-        <v>207658</v>
+        <v>262540</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -11742,7 +20078,7 @@
         <v>152</v>
       </c>
       <c r="B78">
-        <v>209568</v>
+        <v>521466</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -11756,7 +20092,7 @@
         <v>144</v>
       </c>
       <c r="B79">
-        <v>219752</v>
+        <v>287528</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -11770,7 +20106,7 @@
         <v>144</v>
       </c>
       <c r="B80">
-        <v>220694</v>
+        <v>266952</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -11784,7 +20120,7 @@
         <v>142</v>
       </c>
       <c r="B81">
-        <v>238820</v>
+        <v>751730</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -11798,7 +20134,7 @@
         <v>144</v>
       </c>
       <c r="B82">
-        <v>220922</v>
+        <v>264478</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -11812,7 +20148,7 @@
         <v>160</v>
       </c>
       <c r="B83">
-        <v>224306</v>
+        <v>266070</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -11826,7 +20162,7 @@
         <v>164</v>
       </c>
       <c r="B84">
-        <v>254010</v>
+        <v>265346</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -11840,7 +20176,7 @@
         <v>144</v>
       </c>
       <c r="B85">
-        <v>230674</v>
+        <v>267640</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -11854,7 +20190,7 @@
         <v>196</v>
       </c>
       <c r="B86">
-        <v>244254</v>
+        <v>272108</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -11868,7 +20204,7 @@
         <v>158</v>
       </c>
       <c r="B87">
-        <v>221258</v>
+        <v>271144</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -11882,7 +20218,7 @@
         <v>142</v>
       </c>
       <c r="B88">
-        <v>220774</v>
+        <v>263208</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -11896,7 +20232,7 @@
         <v>152</v>
       </c>
       <c r="B89">
-        <v>199526</v>
+        <v>269696</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -11910,7 +20246,7 @@
         <v>142</v>
       </c>
       <c r="B90">
-        <v>221228</v>
+        <v>266082</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -11924,7 +20260,7 @@
         <v>152</v>
       </c>
       <c r="B91">
-        <v>220814</v>
+        <v>268812</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -11938,7 +20274,7 @@
         <v>208</v>
       </c>
       <c r="B92">
-        <v>228990</v>
+        <v>267252</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -11952,7 +20288,7 @@
         <v>142</v>
       </c>
       <c r="B93">
-        <v>222900</v>
+        <v>299954</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -11966,7 +20302,7 @@
         <v>144</v>
       </c>
       <c r="B94">
-        <v>210776</v>
+        <v>303426</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -11980,7 +20316,7 @@
         <v>142</v>
       </c>
       <c r="B95">
-        <v>229794</v>
+        <v>267826</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -11994,7 +20330,7 @@
         <v>152</v>
       </c>
       <c r="B96">
-        <v>220982</v>
+        <v>271716</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -12008,7 +20344,7 @@
         <v>152</v>
       </c>
       <c r="B97">
-        <v>586782</v>
+        <v>272414</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -12022,7 +20358,7 @@
         <v>144</v>
       </c>
       <c r="B98">
-        <v>234956</v>
+        <v>282042</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -12036,7 +20372,7 @@
         <v>144</v>
       </c>
       <c r="B99">
-        <v>221852</v>
+        <v>271454</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -12050,7 +20386,7 @@
         <v>286</v>
       </c>
       <c r="B100">
-        <v>221746</v>
+        <v>273904</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -12064,7 +20400,7 @@
         <v>168</v>
       </c>
       <c r="B101">
-        <v>254462</v>
+        <v>275660</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -12085,7 +20421,7 @@
       </c>
       <c r="B103">
         <f>AVERAGE(B2:B101)</f>
-        <v>249467.78</v>
+        <v>486234.8</v>
       </c>
       <c r="C103">
         <f>AVERAGE(C2:C101)</f>
@@ -12105,8 +20441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" zoomScale="134" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showRuler="0" zoomScale="134" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13563,8 +21900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A94" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D102"/>
+    <sheetView showRuler="0" zoomScale="134" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15021,8 +23359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A86" zoomScale="136" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showRuler="0" zoomScale="136" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/csc-501-project-1/measurements.xlsx
+++ b/csc-501-project-1/measurements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Loops" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>Without read time</t>
-  </si>
-  <si>
-    <t>with read (100000 chars) cycles</t>
-  </si>
-  <si>
-    <t>With read (100000 chars) time</t>
   </si>
   <si>
     <t>Without procedure cycles</t>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>Time (microseconds)</t>
+  </si>
+  <si>
+    <t>with read cycles</t>
+  </si>
+  <si>
+    <t>With read time</t>
   </si>
 </sst>
 </file>
@@ -464,49 +464,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>38840.33</c:v>
+                  <c:v>40316.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164886.87</c:v>
+                  <c:v>34745.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196.53</c:v>
+                  <c:v>13.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197.52</c:v>
+                  <c:v>14.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>244.44</c:v>
+                  <c:v>427.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>227.5</c:v>
+                  <c:v>44.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214.1</c:v>
+                  <c:v>30.63999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234.51</c:v>
+                  <c:v>51.04999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>250.5</c:v>
+                  <c:v>67.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>221.95</c:v>
+                  <c:v>405.41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4847.25</c:v>
+                  <c:v>4682.63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>486234.8</c:v>
+                  <c:v>486080.99</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.86398792E6</c:v>
+                  <c:v>750607.3599999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35167.36</c:v>
+                  <c:v>35012.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39940.1</c:v>
+                  <c:v>39771.93</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>243256.68</c:v>
@@ -525,11 +525,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="42125296"/>
-        <c:axId val="43564416"/>
+        <c:axId val="168882800"/>
+        <c:axId val="168886080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42125296"/>
+        <c:axId val="168882800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -571,7 +571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43564416"/>
+        <c:crossAx val="168886080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -579,7 +579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43564416"/>
+        <c:axId val="168886080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,7 +628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42125296"/>
+        <c:crossAx val="168882800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -862,49 +862,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>23.88</c:v>
+                  <c:v>25.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.01</c:v>
+                  <c:v>21.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153.46</c:v>
+                  <c:v>153.41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1314.86</c:v>
+                  <c:v>522.4099999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.39</c:v>
+                  <c:v>21.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.58</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>161.83</c:v>
@@ -923,11 +923,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="42110832"/>
-        <c:axId val="42832544"/>
+        <c:axId val="168900704"/>
+        <c:axId val="168903456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42110832"/>
+        <c:axId val="168900704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,7 +969,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42832544"/>
+        <c:crossAx val="168903456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -977,7 +977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42832544"/>
+        <c:axId val="168903456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42110832"/>
+        <c:crossAx val="168900704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2163,13 +2163,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:colOff>802640</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
@@ -2193,13 +2193,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>10160</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>193040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>193040</xdr:rowOff>
     </xdr:to>
@@ -2489,8 +2489,8 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2517,52 +2517,52 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B2">
-        <v>51081</v>
+        <v>51184</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B3">
-        <v>37866</v>
+        <v>37796</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B4">
-        <v>37864</v>
+        <v>37954</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B5">
-        <v>37846</v>
+        <v>37952</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B6">
-        <v>37854</v>
+        <v>37920</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2590,27 +2590,27 @@
         <v>144</v>
       </c>
       <c r="B7">
-        <v>37894</v>
+        <v>37918</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B8">
-        <v>37936</v>
+        <v>37948</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2618,49 +2618,49 @@
         <v>144</v>
       </c>
       <c r="B9">
-        <v>37894</v>
+        <v>40876</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B10">
-        <v>37908</v>
+        <v>37812</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B11">
-        <v>37864</v>
+        <v>37908</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12">
-        <v>37814</v>
+        <v>40954</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2674,13 +2674,13 @@
         <v>144</v>
       </c>
       <c r="B13">
-        <v>37858</v>
+        <v>37836</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2688,7 +2688,7 @@
         <v>154</v>
       </c>
       <c r="B14">
-        <v>37156</v>
+        <v>37948</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2699,10 +2699,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B15">
-        <v>37946</v>
+        <v>40862</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2713,38 +2713,38 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="B16">
-        <v>37870</v>
+        <v>37992</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B17">
-        <v>37810</v>
+        <v>37862</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18">
-        <v>37834</v>
+        <v>40948</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B19">
-        <v>37936</v>
+        <v>37928</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B20">
-        <v>37882</v>
+        <v>37848</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2783,80 +2783,80 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B21">
-        <v>37898</v>
+        <v>37910</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B22">
-        <v>37936</v>
+        <v>37910</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B23">
-        <v>37824</v>
+        <v>40850</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24">
-        <v>37786</v>
+        <v>37822</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B25">
-        <v>37862</v>
+        <v>37858</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B26">
-        <v>37864</v>
+        <v>37854</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B27">
-        <v>37906</v>
+        <v>37784</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2881,52 +2881,52 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28">
-        <v>37890</v>
+        <v>37920</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B29">
-        <v>38654</v>
+        <v>40950</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="B30">
-        <v>37840</v>
+        <v>37850</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B31">
-        <v>37988</v>
+        <v>37858</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2937,38 +2937,38 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32">
-        <v>37906</v>
+        <v>37910</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B33">
-        <v>37868</v>
+        <v>37858</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B34">
-        <v>37906</v>
+        <v>37988</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2979,80 +2979,80 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35">
-        <v>37846</v>
+        <v>37854</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B36">
-        <v>37714</v>
+        <v>37822</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B37">
-        <v>37908</v>
+        <v>37928</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B38">
-        <v>37912</v>
+        <v>37822</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B39">
-        <v>37916</v>
+        <v>37822</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B40">
-        <v>37926</v>
+        <v>37820</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B41">
-        <v>37904</v>
+        <v>37822</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3077,30 +3077,30 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B42">
-        <v>37946</v>
+        <v>37956</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B43">
-        <v>51582</v>
+        <v>37946</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3108,7 +3108,7 @@
         <v>154</v>
       </c>
       <c r="B44">
-        <v>37840</v>
+        <v>37922</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3119,24 +3119,24 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B45">
-        <v>37906</v>
+        <v>40950</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B46">
-        <v>37896</v>
+        <v>37830</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3147,38 +3147,38 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B47">
-        <v>37788</v>
+        <v>37956</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B48">
-        <v>37856</v>
+        <v>37822</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B49">
-        <v>37846</v>
+        <v>37858</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3189,38 +3189,38 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B50">
-        <v>37644</v>
+        <v>40948</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B51">
-        <v>37866</v>
+        <v>37846</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B52">
-        <v>37900</v>
+        <v>37848</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3231,24 +3231,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B53">
-        <v>37820</v>
+        <v>37858</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B54">
-        <v>37830</v>
+        <v>37852</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3259,13 +3259,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B55">
-        <v>37880</v>
+        <v>37948</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>23</v>
@@ -3273,10 +3273,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B56">
-        <v>37870</v>
+        <v>37850</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3287,24 +3287,24 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B57">
-        <v>37470</v>
+        <v>37864</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B58">
-        <v>37780</v>
+        <v>37784</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3315,10 +3315,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B59">
-        <v>37834</v>
+        <v>40950</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3329,13 +3329,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B60">
-        <v>37920</v>
+        <v>54598</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>23</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B61">
         <v>37864</v>
@@ -3352,43 +3352,43 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B62">
-        <v>37852</v>
+        <v>37854</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B63">
-        <v>37924</v>
+        <v>37952</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B64">
-        <v>37926</v>
+        <v>40890</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3399,24 +3399,24 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B65">
-        <v>37906</v>
+        <v>37850</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B66">
-        <v>37864</v>
+        <v>37812</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>144</v>
       </c>
       <c r="B67">
-        <v>37860</v>
+        <v>37998</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B68">
-        <v>37816</v>
+        <v>40942</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3455,16 +3455,16 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B69">
-        <v>37866</v>
+        <v>37858</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3472,13 +3472,13 @@
         <v>144</v>
       </c>
       <c r="B70">
-        <v>37814</v>
+        <v>41000</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
         <v>144</v>
       </c>
       <c r="B71">
-        <v>37844</v>
+        <v>37862</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3497,80 +3497,80 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B72">
-        <v>37900</v>
+        <v>163434</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B73">
-        <v>37854</v>
+        <v>37878</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B74">
-        <v>37806</v>
+        <v>40980</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B75">
-        <v>37908</v>
+        <v>37824</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B76">
-        <v>37848</v>
+        <v>37968</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B77">
-        <v>37608</v>
+        <v>37852</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>144</v>
       </c>
       <c r="B78">
-        <v>37910</v>
+        <v>37956</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3598,21 +3598,21 @@
         <v>142</v>
       </c>
       <c r="B79">
-        <v>37946</v>
+        <v>37836</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B80">
-        <v>37944</v>
+        <v>37822</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3623,10 +3623,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B81">
-        <v>37934</v>
+        <v>37954</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3640,41 +3640,41 @@
         <v>144</v>
       </c>
       <c r="B82">
-        <v>37786</v>
+        <v>40872</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B83">
-        <v>37812</v>
+        <v>40950</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B84">
-        <v>37994</v>
+        <v>37900</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3682,21 +3682,21 @@
         <v>154</v>
       </c>
       <c r="B85">
-        <v>37842</v>
+        <v>40874</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B86">
-        <v>40900</v>
+        <v>37822</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3707,16 +3707,16 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B87">
-        <v>37950</v>
+        <v>37918</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3724,7 +3724,7 @@
         <v>146</v>
       </c>
       <c r="B88">
-        <v>37852</v>
+        <v>37786</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B89">
-        <v>37832</v>
+        <v>40824</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3749,24 +3749,24 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B90">
-        <v>37866</v>
+        <v>37954</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B91">
-        <v>37882</v>
+        <v>37920</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3777,27 +3777,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B92">
-        <v>37940</v>
+        <v>37794</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="B93">
-        <v>37920</v>
+        <v>37950</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>23</v>
@@ -3808,7 +3808,7 @@
         <v>142</v>
       </c>
       <c r="B94">
-        <v>37874</v>
+        <v>40936</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3819,38 +3819,38 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B95">
-        <v>37872</v>
+        <v>37784</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B96">
-        <v>37908</v>
+        <v>52770</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B97">
-        <v>37932</v>
+        <v>68178</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3861,24 +3861,24 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B98">
-        <v>37848</v>
+        <v>40956</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B99">
-        <v>37852</v>
+        <v>37810</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3889,45 +3889,45 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="B100">
-        <v>37818</v>
+        <v>37820</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B101">
-        <v>105318</v>
+        <v>37864</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B103">
-        <f>AVERAGE(B2:B101)</f>
-        <v>38840.33</v>
+        <f>AVERAGE(B2:B101)-AVERAGE(A2:A101)</f>
+        <v>40316.120000000003</v>
       </c>
       <c r="D103">
-        <f>AVERAGE(D2:D101)</f>
-        <v>23.88</v>
+        <f>AVERAGE(D2:D101)-AVERAGE(C2:C101)</f>
+        <v>25.84</v>
       </c>
     </row>
   </sheetData>
@@ -3941,7 +3941,7 @@
   <sheetViews>
     <sheetView showRuler="0" zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3958,28 +3958,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6884,7 +6884,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -6903,7 +6903,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -6921,28 +6921,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -9847,7 +9847,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -9866,7 +9866,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9877,213 +9877,213 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <f>VALUE(Loops!B103)</f>
-        <v>38840.33</v>
+        <v>40316.120000000003</v>
       </c>
       <c r="C2" s="1">
         <f>VALUE(Loops!D103)</f>
-        <v>23.88</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <f>VALUE('Reading Time'!B103)</f>
-        <v>164886.87</v>
+        <v>34745.43</v>
       </c>
       <c r="C3" s="1">
         <f>VALUE('Reading Time'!D103)</f>
-        <v>98.01</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <f>VALUE('Procedure cycles'!B103)</f>
-        <v>196.53</v>
+        <v>13.069999999999993</v>
       </c>
       <c r="C4" s="1">
         <f>VALUE('Procedure time'!B103)</f>
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <f>VALUE('Procedure cycles'!C103)</f>
-        <v>197.52</v>
+        <v>14.060000000000002</v>
       </c>
       <c r="C5" s="1">
         <f>VALUE('Procedure time'!C103)</f>
-        <v>0.15</v>
+        <v>6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <f>VALUE('Procedure cycles'!D103)</f>
-        <v>244.44</v>
+        <v>427.9</v>
       </c>
       <c r="C6" s="1">
         <f>VALUE('Procedure time'!D103)</f>
-        <v>0.14000000000000001</v>
+        <v>6.0000000000000012E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
         <f>VALUE('Procedure cycles'!E103)</f>
-        <v>227.5</v>
+        <v>44.039999999999992</v>
       </c>
       <c r="C7" s="1">
         <f>VALUE('Procedure time'!E103)</f>
-        <v>0.15</v>
+        <v>6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
         <f>VALUE('Procedure cycles'!F103)</f>
-        <v>214.1</v>
+        <v>30.639999999999986</v>
       </c>
       <c r="C8" s="1">
         <f>VALUE('Procedure time'!F103)</f>
-        <v>0.12</v>
+        <v>3.9999999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <f>VALUE('Procedure cycles'!G103)</f>
-        <v>234.51</v>
+        <v>51.049999999999983</v>
       </c>
       <c r="C9" s="1">
         <f>VALUE('Procedure time'!G103)</f>
-        <v>0.3</v>
+        <v>0.21999999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <f>VALUE('Procedure cycles'!H103)</f>
-        <v>250.5</v>
+        <v>67.039999999999992</v>
       </c>
       <c r="C10" s="1">
         <f>VALUE('Procedure time'!H103)</f>
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1">
         <f>VALUE('Procedure cycles'!I103)</f>
-        <v>221.95</v>
+        <v>405.40999999999997</v>
       </c>
       <c r="C11" s="1">
         <f>VALUE('Procedure time'!I103)</f>
-        <v>0.14000000000000001</v>
+        <v>6.0000000000000012E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
         <f>VALUE('System Call'!B103)</f>
-        <v>4847.25</v>
+        <v>4682.63</v>
       </c>
       <c r="C12" s="1">
         <f>VALUE('System Call'!D103)</f>
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1">
         <f>VALUE('Process creation'!B103)</f>
-        <v>486234.8</v>
+        <v>486080.99</v>
       </c>
       <c r="C13" s="1">
         <f>VALUE('Process creation'!D103)</f>
-        <v>153.46</v>
+        <v>153.41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1">
         <f>VALUE('Process running'!B103)</f>
-        <v>1863987.92</v>
+        <v>750607.35999999987</v>
       </c>
       <c r="C14" s="1">
         <f>VALUE('Process running'!D103)</f>
-        <v>1314.86</v>
+        <v>522.40999999999985</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1">
         <f>VALUE('Thread creation'!B103)</f>
-        <v>35167.360000000001</v>
+        <v>35012.160000000003</v>
       </c>
       <c r="C15" s="1">
         <f>VALUE('Thread creation'!D103)</f>
-        <v>21.39</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1">
         <f>VALUE('Thread running'!B103)</f>
-        <v>39940.1</v>
+        <v>39771.93</v>
       </c>
       <c r="C16" s="1">
         <f>VALUE('Thread running'!D103)</f>
-        <v>25.58</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1">
         <f>VALUE('Context switch cycles'!H103)</f>
@@ -10105,16 +10105,16 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -10122,1428 +10122,1428 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>332</v>
+        <v>51075</v>
       </c>
       <c r="B2">
-        <v>315344</v>
+        <v>95085</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>268</v>
+        <v>37926</v>
       </c>
       <c r="B3">
-        <v>261836</v>
+        <v>72470</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>198</v>
+        <v>37864</v>
       </c>
       <c r="B4">
-        <v>261420</v>
+        <v>70340</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>174</v>
+        <v>37804</v>
       </c>
       <c r="B5">
-        <v>139752</v>
+        <v>70642</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>354</v>
+        <v>37822</v>
       </c>
       <c r="B6">
-        <v>139978</v>
+        <v>72538</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>152</v>
+        <v>37848</v>
       </c>
       <c r="B7">
-        <v>144280</v>
+        <v>71838</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>284</v>
+        <v>37836</v>
       </c>
       <c r="B8">
-        <v>144950</v>
+        <v>71834</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>180</v>
+        <v>37852</v>
       </c>
       <c r="B9">
-        <v>140988</v>
+        <v>71382</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>154</v>
+        <v>37860</v>
       </c>
       <c r="B10">
-        <v>138800</v>
+        <v>69902</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>166</v>
+        <v>37876</v>
       </c>
       <c r="B11">
-        <v>151338</v>
+        <v>72094</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>168</v>
+        <v>37968</v>
       </c>
       <c r="B12">
-        <v>149956</v>
+        <v>72422</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>154</v>
+        <v>37794</v>
       </c>
       <c r="B13">
-        <v>141428</v>
+        <v>71484</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>144</v>
+        <v>37920</v>
       </c>
       <c r="B14">
-        <v>137650</v>
+        <v>71718</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>142</v>
+        <v>37854</v>
       </c>
       <c r="B15">
-        <v>139930</v>
+        <v>104792</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>152</v>
+        <v>40816</v>
       </c>
       <c r="B16">
-        <v>139758</v>
+        <v>70534</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>146</v>
+        <v>37822</v>
       </c>
       <c r="B17">
-        <v>140916</v>
+        <v>72510</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>154</v>
+        <v>37912</v>
       </c>
       <c r="B18">
-        <v>137242</v>
+        <v>71214</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>142</v>
+        <v>40890</v>
       </c>
       <c r="B19">
-        <v>141582</v>
+        <v>70620</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>144</v>
+        <v>37900</v>
       </c>
       <c r="B20">
-        <v>139632</v>
+        <v>71884</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>158</v>
+        <v>37822</v>
       </c>
       <c r="B21">
-        <v>152486</v>
+        <v>72762</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>168</v>
+        <v>37948</v>
       </c>
       <c r="B22">
-        <v>175516</v>
+        <v>74106</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>140</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>144</v>
+        <v>37956</v>
       </c>
       <c r="B23">
-        <v>140866</v>
+        <v>71568</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>144</v>
+        <v>37822</v>
       </c>
       <c r="B24">
-        <v>143826</v>
+        <v>69946</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>154</v>
+        <v>37912</v>
       </c>
       <c r="B25">
-        <v>146618</v>
+        <v>71996</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>115</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>166</v>
+        <v>37786</v>
       </c>
       <c r="B26">
-        <v>141802</v>
+        <v>72376</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>98</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>142</v>
+        <v>37820</v>
       </c>
       <c r="B27">
-        <v>187456</v>
+        <v>88957</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>154</v>
+        <v>37910</v>
       </c>
       <c r="B28">
-        <v>273784</v>
+        <v>70968</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>146</v>
+        <v>37850</v>
       </c>
       <c r="B29">
-        <v>157654</v>
+        <v>70368</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>152</v>
+        <v>37822</v>
       </c>
       <c r="B30">
-        <v>157094</v>
+        <v>70816</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>150</v>
+        <v>37980</v>
       </c>
       <c r="B31">
-        <v>158716</v>
+        <v>72702</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>152</v>
+        <v>37832</v>
       </c>
       <c r="B32">
-        <v>188562</v>
+        <v>85254</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>107</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>150</v>
+        <v>37832</v>
       </c>
       <c r="B33">
-        <v>152590</v>
+        <v>71080</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>252</v>
+        <v>37950</v>
       </c>
       <c r="B34">
-        <v>152732</v>
+        <v>106872</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>152</v>
+        <v>40978</v>
       </c>
       <c r="B35">
-        <v>155698</v>
+        <v>71670</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>176</v>
+        <v>37820</v>
       </c>
       <c r="B36">
-        <v>143850</v>
+        <v>73792</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>222</v>
+        <v>37908</v>
       </c>
       <c r="B37">
-        <v>248266</v>
+        <v>85616</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>98</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>142</v>
+        <v>37824</v>
       </c>
       <c r="B38">
-        <v>367722</v>
+        <v>72482</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>154</v>
+        <v>40898</v>
       </c>
       <c r="B39">
-        <v>148892</v>
+        <v>86006</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>144</v>
+        <v>37866</v>
       </c>
       <c r="B40">
-        <v>148918</v>
+        <v>71720</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>144</v>
+        <v>41012</v>
       </c>
       <c r="B41">
-        <v>292514</v>
+        <v>71020</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>144</v>
+        <v>37854</v>
       </c>
       <c r="B42">
-        <v>143060</v>
+        <v>69908</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>173</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>154</v>
+        <v>37822</v>
       </c>
       <c r="B43">
-        <v>169136</v>
+        <v>77194</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>156</v>
+        <v>37856</v>
       </c>
       <c r="B44">
-        <v>140820</v>
+        <v>72406</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>144</v>
+        <v>37918</v>
       </c>
       <c r="B45">
-        <v>156602</v>
+        <v>71744</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>144</v>
+        <v>37892</v>
       </c>
       <c r="B46">
-        <v>142154</v>
+        <v>71340</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>154</v>
+        <v>37928</v>
       </c>
       <c r="B47">
-        <v>144304</v>
+        <v>70924</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>154</v>
+        <v>37954</v>
       </c>
       <c r="B48">
-        <v>142578</v>
+        <v>71864</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>146</v>
+        <v>37822</v>
       </c>
       <c r="B49">
-        <v>140868</v>
+        <v>71614</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>168</v>
+        <v>37794</v>
       </c>
       <c r="B50">
-        <v>141574</v>
+        <v>70802</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>152</v>
+        <v>37856</v>
       </c>
       <c r="B51">
-        <v>142540</v>
+        <v>71230</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D51">
-        <v>132</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>144</v>
+        <v>37854</v>
       </c>
       <c r="B52">
-        <v>143954</v>
+        <v>70614</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>290</v>
+        <v>37864</v>
       </c>
       <c r="B53">
-        <v>196834</v>
+        <v>73910</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>166</v>
+        <v>37832</v>
       </c>
       <c r="B54">
-        <v>145884</v>
+        <v>72548</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D54">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>142</v>
+        <v>37908</v>
       </c>
       <c r="B55">
-        <v>158086</v>
+        <v>71060</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>144</v>
+        <v>37860</v>
       </c>
       <c r="B56">
-        <v>147564</v>
+        <v>69686</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>116</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>144</v>
+        <v>37952</v>
       </c>
       <c r="B57">
-        <v>155246</v>
+        <v>73628</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>119</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>146</v>
+        <v>37832</v>
       </c>
       <c r="B58">
-        <v>142418</v>
+        <v>73040</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>144</v>
+        <v>37862</v>
       </c>
       <c r="B59">
-        <v>220268</v>
+        <v>72900</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>121</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>164</v>
+        <v>37836</v>
       </c>
       <c r="B60">
-        <v>175326</v>
+        <v>72328</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>154</v>
+        <v>37848</v>
       </c>
       <c r="B61">
-        <v>151548</v>
+        <v>70640</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D61">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>142</v>
+        <v>38002</v>
       </c>
       <c r="B62">
-        <v>268352</v>
+        <v>71970</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>154</v>
+        <v>37898</v>
       </c>
       <c r="B63">
-        <v>147342</v>
+        <v>71520</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>176</v>
+        <v>37954</v>
       </c>
       <c r="B64">
-        <v>183360</v>
+        <v>71988</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D64">
-        <v>148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>144</v>
+        <v>37854</v>
       </c>
       <c r="B65">
-        <v>147758</v>
+        <v>71176</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>168</v>
+        <v>37952</v>
       </c>
       <c r="B66">
-        <v>222536</v>
+        <v>70764</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>142</v>
+        <v>37832</v>
       </c>
       <c r="B67">
-        <v>221952</v>
+        <v>72670</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D67">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>146</v>
+        <v>37856</v>
       </c>
       <c r="B68">
-        <v>161586</v>
+        <v>72200</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>154</v>
+        <v>37866</v>
       </c>
       <c r="B69">
-        <v>255422</v>
+        <v>71786</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D69">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>154</v>
+        <v>37812</v>
       </c>
       <c r="B70">
-        <v>152180</v>
+        <v>70634</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D70">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>144</v>
+        <v>37910</v>
       </c>
       <c r="B71">
-        <v>152138</v>
+        <v>99252</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D71">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>142</v>
+        <v>37784</v>
       </c>
       <c r="B72">
-        <v>145636</v>
+        <v>70782</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>154</v>
+        <v>37894</v>
       </c>
       <c r="B73">
-        <v>181884</v>
+        <v>72078</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>156</v>
+        <v>37954</v>
       </c>
       <c r="B74">
-        <v>137870</v>
+        <v>72146</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>123</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>142</v>
+        <v>37934</v>
       </c>
       <c r="B75">
-        <v>170932</v>
+        <v>71520</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>144</v>
+        <v>37938</v>
       </c>
       <c r="B76">
-        <v>152784</v>
+        <v>72928</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D76">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>144</v>
+        <v>37918</v>
       </c>
       <c r="B77">
-        <v>148302</v>
+        <v>71620</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>154</v>
+        <v>37860</v>
       </c>
       <c r="B78">
-        <v>139410</v>
+        <v>70780</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D78">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>152</v>
+        <v>37814</v>
       </c>
       <c r="B79">
-        <v>160702</v>
+        <v>70632</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>144</v>
+        <v>37954</v>
       </c>
       <c r="B80">
-        <v>183209</v>
+        <v>71544</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D80">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>152</v>
+        <v>37820</v>
       </c>
       <c r="B81">
-        <v>139930</v>
+        <v>72410</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D81">
-        <v>92</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>154</v>
+        <v>37822</v>
       </c>
       <c r="B82">
-        <v>172468</v>
+        <v>70490</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D82">
-        <v>106</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>146</v>
+        <v>37852</v>
       </c>
       <c r="B83">
-        <v>169552</v>
+        <v>77914</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>125</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>152</v>
+        <v>37910</v>
       </c>
       <c r="B84">
-        <v>165324</v>
+        <v>77472</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D84">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>144</v>
+        <v>37964</v>
       </c>
       <c r="B85">
-        <v>154124</v>
+        <v>71778</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D85">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>152</v>
+        <v>37820</v>
       </c>
       <c r="B86">
-        <v>141150</v>
+        <v>73672</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>144</v>
+        <v>37784</v>
       </c>
       <c r="B87">
-        <v>140280</v>
+        <v>71562</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>142</v>
+        <v>133830</v>
       </c>
       <c r="B88">
-        <v>140468</v>
+        <v>70354</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D88">
-        <v>202</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>154</v>
+        <v>37922</v>
       </c>
       <c r="B89">
-        <v>140492</v>
+        <v>69742</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D89">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>166</v>
+        <v>37784</v>
       </c>
       <c r="B90">
-        <v>140982</v>
+        <v>71686</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D90">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>142</v>
+        <v>37910</v>
       </c>
       <c r="B91">
-        <v>140760</v>
+        <v>71584</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D91">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>224</v>
+        <v>37960</v>
       </c>
       <c r="B92">
-        <v>140642</v>
+        <v>71044</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D92">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>142</v>
+        <v>37854</v>
       </c>
       <c r="B93">
-        <v>149072</v>
+        <v>72950</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D93">
-        <v>104</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>352</v>
+        <v>40980</v>
       </c>
       <c r="B94">
-        <v>140298</v>
+        <v>71408</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D94">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>154</v>
+        <v>37956</v>
       </c>
       <c r="B95">
-        <v>141572</v>
+        <v>71646</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D95">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>154</v>
+        <v>37866</v>
       </c>
       <c r="B96">
-        <v>155670</v>
+        <v>69946</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D96">
-        <v>131</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>164</v>
+        <v>37822</v>
       </c>
       <c r="B97">
-        <v>138494</v>
+        <v>73346</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D97">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>142</v>
+        <v>37864</v>
       </c>
       <c r="B98">
-        <v>145150</v>
+        <v>71494</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D98">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>166</v>
+        <v>37864</v>
       </c>
       <c r="B99">
-        <v>141828</v>
+        <v>70168</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D99">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>232</v>
+        <v>40936</v>
       </c>
       <c r="B100">
-        <v>137648</v>
+        <v>104820</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D100">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>144</v>
+        <v>37920</v>
       </c>
       <c r="B101">
-        <v>176322</v>
+        <v>72264</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D101">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B103">
-        <f>AVERAGE(B2:B101)</f>
-        <v>164886.87</v>
+        <f>AVERAGE(B2:B101)-AVERAGE(A2:A101)</f>
+        <v>34745.43</v>
       </c>
       <c r="D103">
-        <f>AVERAGE(D2:D101)</f>
-        <v>98.01</v>
+        <f>AVERAGE(D2:D101)-AVERAGE(C2:C101)</f>
+        <v>21.65</v>
       </c>
     </row>
   </sheetData>
@@ -11556,8 +11556,8 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:I103"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11568,31 +11568,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -14497,41 +14497,41 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103">
-        <f>AVERAGE(B2:B101)</f>
-        <v>196.53</v>
+        <f>AVERAGE(B2:B101)-AVERAGE(A2:A101)</f>
+        <v>13.069999999999993</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:I103" si="0">AVERAGE(C2:C101)</f>
-        <v>197.52</v>
+        <f>AVERAGE(C2:C101)-AVERAGE(A2:A101)</f>
+        <v>14.060000000000002</v>
       </c>
       <c r="D103">
-        <f t="shared" si="0"/>
-        <v>244.44</v>
+        <f>AVERAGE(D2:D101)--AVERAGE(A2:A101)</f>
+        <v>427.9</v>
       </c>
       <c r="E103">
-        <f t="shared" si="0"/>
-        <v>227.5</v>
+        <f>AVERAGE(E2:E101)-AVERAGE(A2:A101)</f>
+        <v>44.039999999999992</v>
       </c>
       <c r="F103">
-        <f t="shared" si="0"/>
-        <v>214.1</v>
+        <f>AVERAGE(F2:F101)-AVERAGE(A2:A101)</f>
+        <v>30.639999999999986</v>
       </c>
       <c r="G103">
-        <f t="shared" si="0"/>
-        <v>234.51</v>
+        <f>AVERAGE(G2:G101)-AVERAGE(A2:A101)</f>
+        <v>51.049999999999983</v>
       </c>
       <c r="H103">
-        <f t="shared" si="0"/>
-        <v>250.5</v>
+        <f>AVERAGE(H2:H101)-AVERAGE(A2:A101)</f>
+        <v>67.039999999999992</v>
       </c>
       <c r="I103">
-        <f t="shared" si="0"/>
-        <v>221.95</v>
+        <f>AVERAGE(I2:I101)--AVERAGE(A2:A101)</f>
+        <v>405.40999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -14545,7 +14545,7 @@
   <sheetViews>
     <sheetView showRuler="0" zoomScale="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14556,31 +14556,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -17485,41 +17485,41 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103">
-        <f>AVERAGE(B2:B101)</f>
-        <v>0.16</v>
+        <f>AVERAGE(B2:B101)-AVERAGE(A2:A101)</f>
+        <v>0.08</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:I103" si="0">AVERAGE(C2:C101)</f>
-        <v>0.15</v>
+        <f>AVERAGE(C2:C101)-AVERAGE(A2:A101)</f>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <f>AVERAGE(D2:D101)-AVERAGE(A2:A101)</f>
+        <v>6.0000000000000012E-2</v>
       </c>
       <c r="E103">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
+        <f>AVERAGE(E2:E101)-AVERAGE(A2:A101)</f>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="F103">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
+        <f>AVERAGE(F2:F101)-AVERAGE(A2:A101)</f>
+        <v>3.9999999999999994E-2</v>
       </c>
       <c r="G103">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f>AVERAGE(G2:G101)-AVERAGE(A2:A101)</f>
+        <v>0.21999999999999997</v>
       </c>
       <c r="H103">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
+        <f>AVERAGE(H2:H101)-AVERAGE(A2:A101)</f>
+        <v>0.08</v>
       </c>
       <c r="I103">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <f>AVERAGE(I2:I101)-AVERAGE(A2:A101)</f>
+        <v>6.0000000000000012E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17533,7 +17533,7 @@
   <sheetViews>
     <sheetView showRuler="0" zoomScale="117" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17546,16 +17546,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -18960,17 +18960,17 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B103">
-        <f>AVERAGE(B2:B101)</f>
-        <v>4847.25</v>
+        <f>AVERAGE(B2:B101)-AVERAGE(A2:A101)</f>
+        <v>4682.63</v>
       </c>
       <c r="D103">
-        <f>AVERAGE(D2:D101)</f>
-        <v>2.1</v>
+        <f>AVERAGE(D2:D101)-AVERAGE(C2:C101)</f>
+        <v>2.06</v>
       </c>
     </row>
   </sheetData>
@@ -18984,7 +18984,7 @@
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18997,16 +18997,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -20411,7 +20411,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -20420,16 +20420,16 @@
         <v>153.81</v>
       </c>
       <c r="B103">
-        <f>AVERAGE(B2:B101)</f>
-        <v>486234.8</v>
+        <f>AVERAGE(B2:B101)-A103</f>
+        <v>486080.99</v>
       </c>
       <c r="C103">
         <f>AVERAGE(C2:C101)</f>
         <v>0.05</v>
       </c>
       <c r="D103">
-        <f>AVERAGE(D2:D101)</f>
-        <v>153.46</v>
+        <f>AVERAGE(D2:D101)-C103</f>
+        <v>153.41</v>
       </c>
     </row>
   </sheetData>
@@ -20443,7 +20443,7 @@
   <sheetViews>
     <sheetView showRuler="0" zoomScale="134" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20456,16 +20456,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -21870,7 +21870,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -21879,16 +21879,16 @@
         <v>1113380.56</v>
       </c>
       <c r="B103">
-        <f>AVERAGE(B2:B101)</f>
-        <v>1863987.92</v>
+        <f>AVERAGE(B2:B101)-A103</f>
+        <v>750607.35999999987</v>
       </c>
       <c r="C103">
         <f>AVERAGE(C2:C101)</f>
         <v>792.45</v>
       </c>
       <c r="D103">
-        <f>AVERAGE(D2:D101)</f>
-        <v>1314.86</v>
+        <f>AVERAGE(D2:D101)-C103</f>
+        <v>522.40999999999985</v>
       </c>
     </row>
   </sheetData>
@@ -21902,7 +21902,7 @@
   <sheetViews>
     <sheetView showRuler="0" zoomScale="134" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D102"/>
+      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21915,16 +21915,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -23329,7 +23329,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -23338,16 +23338,16 @@
         <v>155.19999999999999</v>
       </c>
       <c r="B103">
-        <f t="shared" ref="B103:D103" si="0">AVERAGE(B2:B101)</f>
-        <v>35167.360000000001</v>
+        <f>AVERAGE(B2:B101)-A103</f>
+        <v>35012.160000000003</v>
       </c>
       <c r="C103">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B103:D103" si="0">AVERAGE(C2:C101)</f>
         <v>0.05</v>
       </c>
       <c r="D103">
-        <f t="shared" si="0"/>
-        <v>21.39</v>
+        <f>AVERAGE(D2:D101)-C103</f>
+        <v>21.34</v>
       </c>
     </row>
   </sheetData>
@@ -23361,7 +23361,7 @@
   <sheetViews>
     <sheetView showRuler="0" zoomScale="136" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23374,16 +23374,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -24788,7 +24788,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -24797,16 +24797,16 @@
         <v>168.17</v>
       </c>
       <c r="B103">
-        <f t="shared" ref="B103:D103" si="0">AVERAGE(B2:B101)</f>
-        <v>39940.1</v>
+        <f>AVERAGE(B2:B101)-A103</f>
+        <v>39771.93</v>
       </c>
       <c r="C103">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B103:D103" si="0">AVERAGE(C2:C101)</f>
         <v>0.08</v>
       </c>
       <c r="D103">
-        <f t="shared" si="0"/>
-        <v>25.58</v>
+        <f>AVERAGE(D2:D101)-C103</f>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
